--- a/data/original/Til Anders Peter og Frederik 14122023.xlsx
+++ b/data/original/Til Anders Peter og Frederik 14122023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ST_ENVS-Luft-Emi\Rikke\Sendt til div\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_E6E2CDB5D714CECB874DAF8AF1372014E0ED704F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED0E8BB-E1F2-4D74-BD4D-EC09953A6E8A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9765" windowHeight="9495"/>
+    <workbookView xWindow="225" yWindow="360" windowWidth="14955" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N, TAN, TonGødning, VS" sheetId="1" r:id="rId1"/>
@@ -279,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,25 +374,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Antal dyr" xfId="1"/>
-    <cellStyle name="Normal_N, TAN, TonGødning, VS" xfId="2"/>
+    <cellStyle name="Normal_Antal dyr" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_N, TAN, TonGødning, VS" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,17 +669,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B155" workbookViewId="0">
+      <selection activeCell="B171" sqref="A171:XFD171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -9912,7 +9913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F135"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">

--- a/data/original/Til Anders Peter og Frederik 14122023.xlsx
+++ b/data/original/Til Anders Peter og Frederik 14122023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_E6E2CDB5D714CECB874DAF8AF1372014E0ED704F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED0E8BB-E1F2-4D74-BD4D-EC09953A6E8A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_E6E2CDB5D714CECB874DAF8AF1372014E0ED704F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57784980-F747-4CB9-B979-C6A79840C862}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="360" windowWidth="14955" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N, TAN, TonGødning, VS" sheetId="1" r:id="rId1"/>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B155" workbookViewId="0">
-      <selection activeCell="B171" sqref="A171:XFD171"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,40 +753,40 @@
         <v>77</v>
       </c>
       <c r="B3" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F3" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H3" s="8">
-        <v>68.150000000000006</v>
+        <v>26.18</v>
       </c>
       <c r="I3" s="8">
-        <v>68.150000000000006</v>
+        <v>26.18</v>
       </c>
       <c r="J3" s="8">
-        <v>9.85</v>
+        <v>3.05</v>
       </c>
       <c r="K3" s="8">
-        <v>5</v>
+        <v>13.32</v>
       </c>
       <c r="L3" s="6">
-        <v>0.3745698630136986</v>
+        <v>0.64060641061643797</v>
       </c>
       <c r="M3" s="6">
-        <v>1.9430136986301371E-2</v>
+        <v>0.19945696438356164</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -794,40 +794,40 @@
         <v>77</v>
       </c>
       <c r="B4" s="8">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="8">
-        <v>92.89</v>
+        <v>17.46</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>12.04</v>
       </c>
       <c r="J4" s="8">
-        <v>18.22</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K4" s="8">
-        <v>13.5</v>
+        <v>13.32</v>
       </c>
       <c r="L4" s="6">
-        <v>2.20873248082192</v>
+        <v>8.356347616438356E-2</v>
       </c>
       <c r="M4" s="6">
-        <v>9.7040219178082199E-2</v>
+        <v>0.13275332383561642</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -835,40 +835,40 @@
         <v>77</v>
       </c>
       <c r="B5" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D5" s="8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5" s="8">
-        <v>161.03</v>
+        <v>26.18</v>
       </c>
       <c r="I5" s="8">
-        <v>68.150000000000006</v>
+        <v>26.18</v>
       </c>
       <c r="J5" s="8">
-        <v>28.06</v>
+        <v>3.05</v>
       </c>
       <c r="K5" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L5" s="6">
-        <v>2.5830833060274001</v>
+        <v>0.64060641061643797</v>
       </c>
       <c r="M5" s="6">
-        <v>0.11645899397260273</v>
+        <v>0.19945696438356164</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -876,16 +876,16 @@
         <v>77</v>
       </c>
       <c r="B6" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -894,22 +894,22 @@
         <v>15</v>
       </c>
       <c r="H6" s="8">
-        <v>161.03</v>
+        <v>17.46</v>
       </c>
       <c r="I6" s="8">
-        <v>68.150000000000006</v>
+        <v>12.04</v>
       </c>
       <c r="J6" s="8">
-        <v>28.06</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K6" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L6" s="6">
-        <v>2.3577415060273998</v>
+        <v>8.356347616438356E-2</v>
       </c>
       <c r="M6" s="6">
-        <v>0.11645899397260273</v>
+        <v>0.13275332383561642</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -917,40 +917,40 @@
         <v>77</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" s="8">
-        <v>161.03</v>
+        <v>43.64</v>
       </c>
       <c r="I7" s="8">
-        <v>68.150000000000006</v>
+        <v>43.64</v>
       </c>
       <c r="J7" s="8">
-        <v>28.06</v>
+        <v>5.08</v>
       </c>
       <c r="K7" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L7" s="6">
-        <v>2.3577415060273998</v>
+        <v>0.81001244928082194</v>
       </c>
       <c r="M7" s="6">
-        <v>0.11645899397260273</v>
+        <v>0.33221028821917808</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -958,40 +958,40 @@
         <v>77</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H8" s="8">
-        <v>161.03</v>
+        <v>26.18</v>
       </c>
       <c r="I8" s="8">
-        <v>68.150000000000006</v>
+        <v>26.18</v>
       </c>
       <c r="J8" s="8">
-        <v>28.06</v>
+        <v>3.05</v>
       </c>
       <c r="K8" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L8" s="6">
-        <v>2.3577415060273998</v>
+        <v>0.64060641061643797</v>
       </c>
       <c r="M8" s="6">
-        <v>0.11645899397260273</v>
+        <v>0.19945696438356164</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -999,40 +999,40 @@
         <v>77</v>
       </c>
       <c r="B9" s="8">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8">
-        <v>6</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9" s="8">
-        <v>161.03</v>
+        <v>17.46</v>
       </c>
       <c r="I9" s="8">
-        <v>161.03</v>
+        <v>12.04</v>
       </c>
       <c r="J9" s="8">
-        <v>28.06</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K9" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L9" s="6">
-        <v>5.6251976060273998</v>
+        <v>8.356347616438356E-2</v>
       </c>
       <c r="M9" s="6">
-        <v>0.11645899397260273</v>
+        <v>0.13275332383561642</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1040,40 +1040,40 @@
         <v>77</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D10" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8">
-        <v>64.41</v>
+        <v>43.64</v>
       </c>
       <c r="I10" s="8">
-        <v>27.26</v>
+        <v>43.64</v>
       </c>
       <c r="J10" s="8">
-        <v>11.23</v>
+        <v>5.08</v>
       </c>
       <c r="K10" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L10" s="6">
-        <v>0.89850830027397266</v>
+        <v>0.89585501178082205</v>
       </c>
       <c r="M10" s="6">
-        <v>4.6608499726027403E-2</v>
+        <v>0.33221028821917808</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1081,40 +1081,40 @@
         <v>77</v>
       </c>
       <c r="B11" s="8">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="8">
-        <v>6</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H11" s="8">
-        <v>96.62</v>
+        <v>43.64</v>
       </c>
       <c r="I11" s="8">
-        <v>96.62</v>
+        <v>30.1</v>
       </c>
       <c r="J11" s="8">
-        <v>16.84</v>
+        <v>5.08</v>
       </c>
       <c r="K11" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L11" s="6">
-        <v>4.1641349021917797</v>
+        <v>0.232005861780822</v>
       </c>
       <c r="M11" s="6">
-        <v>6.9891997808219183E-2</v>
+        <v>0.33221028821917808</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1122,16 +1122,16 @@
         <v>77</v>
       </c>
       <c r="B12" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D12" s="8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
@@ -1140,22 +1140,22 @@
         <v>15</v>
       </c>
       <c r="H12" s="8">
-        <v>64.41</v>
+        <v>43.64</v>
       </c>
       <c r="I12" s="8">
-        <v>27.26</v>
+        <v>30.1</v>
       </c>
       <c r="J12" s="8">
-        <v>11.23</v>
+        <v>5.08</v>
       </c>
       <c r="K12" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L12" s="6">
-        <v>0.89850830027397266</v>
+        <v>0.232005861780822</v>
       </c>
       <c r="M12" s="6">
-        <v>4.6608499726027403E-2</v>
+        <v>0.33221028821917808</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1163,40 +1163,40 @@
         <v>77</v>
       </c>
       <c r="B13" s="8">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8">
-        <v>6</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H13" s="8">
-        <v>96.62</v>
+        <v>43.64</v>
       </c>
       <c r="I13" s="8">
-        <v>96.62</v>
+        <v>30.1</v>
       </c>
       <c r="J13" s="8">
-        <v>16.84</v>
+        <v>5.08</v>
       </c>
       <c r="K13" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L13" s="6">
-        <v>4.1641349021917797</v>
+        <v>0.27778856178082201</v>
       </c>
       <c r="M13" s="6">
-        <v>6.9891997808219183E-2</v>
+        <v>0.33221028821917808</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1204,40 +1204,40 @@
         <v>77</v>
       </c>
       <c r="B14" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8">
-        <v>64.41</v>
+        <v>30.1</v>
       </c>
       <c r="I14" s="8">
-        <v>27.26</v>
+        <v>30.1</v>
       </c>
       <c r="J14" s="8">
-        <v>11.23</v>
+        <v>1.86</v>
       </c>
       <c r="K14" s="8">
-        <v>10.52</v>
+        <v>5</v>
       </c>
       <c r="L14" s="6">
-        <v>0.89850830027397266</v>
+        <v>2.8740821917808222E-2</v>
       </c>
       <c r="M14" s="6">
-        <v>4.6608499726027403E-2</v>
+        <v>4.5659178082191783E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1245,40 +1245,40 @@
         <v>77</v>
       </c>
       <c r="B15" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D15" s="8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F15" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H15" s="8">
-        <v>96.62</v>
+        <v>13.54</v>
       </c>
       <c r="I15" s="8">
-        <v>96.62</v>
+        <v>0</v>
       </c>
       <c r="J15" s="8">
-        <v>16.84</v>
+        <v>3.22</v>
       </c>
       <c r="K15" s="8">
-        <v>10.52</v>
+        <v>18.13</v>
       </c>
       <c r="L15" s="6">
-        <v>4.1641349021917797</v>
+        <v>0.24908791520547899</v>
       </c>
       <c r="M15" s="6">
-        <v>6.9891997808219183E-2</v>
+        <v>0.28661493479452055</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1286,40 +1286,40 @@
         <v>77</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D16" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8">
-        <v>161.03</v>
+        <v>43.45</v>
       </c>
       <c r="I16" s="8">
-        <v>68.150000000000006</v>
+        <v>43.45</v>
       </c>
       <c r="J16" s="8">
-        <v>28.06</v>
+        <v>5</v>
       </c>
       <c r="K16" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L16" s="6">
-        <v>2.3577415060273998</v>
+        <v>0.892561869863014</v>
       </c>
       <c r="M16" s="6">
-        <v>0.11645899397260273</v>
+        <v>0.3269786301369863</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1327,40 +1327,40 @@
         <v>77</v>
       </c>
       <c r="B17" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D17" s="8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F17" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H17" s="8">
-        <v>56.43</v>
+        <v>28.97</v>
       </c>
       <c r="I17" s="8">
-        <v>56.43</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="J17" s="8">
-        <v>7.95</v>
+        <v>3.33</v>
       </c>
       <c r="K17" s="8">
-        <v>5</v>
+        <v>13.32</v>
       </c>
       <c r="L17" s="6">
-        <v>0.30231780821917809</v>
+        <v>0.13707703232876711</v>
       </c>
       <c r="M17" s="6">
-        <v>1.5682191780821919E-2</v>
+        <v>0.21776776767123288</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1368,40 +1368,40 @@
         <v>77</v>
       </c>
       <c r="B18" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D18" s="8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F18" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8">
-        <v>76.91</v>
+        <v>43.45</v>
       </c>
       <c r="I18" s="8">
-        <v>0</v>
+        <v>43.45</v>
       </c>
       <c r="J18" s="8">
-        <v>14.71</v>
+        <v>5</v>
       </c>
       <c r="K18" s="8">
-        <v>13.5</v>
+        <v>13.32</v>
       </c>
       <c r="L18" s="6">
-        <v>1.7920113869862999</v>
+        <v>0.892561869863014</v>
       </c>
       <c r="M18" s="6">
-        <v>7.8345863013698627E-2</v>
+        <v>0.3269786301369863</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1409,16 +1409,16 @@
         <v>77</v>
       </c>
       <c r="B19" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D19" s="8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>
@@ -1427,22 +1427,22 @@
         <v>15</v>
       </c>
       <c r="H19" s="8">
-        <v>133.34</v>
+        <v>28.97</v>
       </c>
       <c r="I19" s="8">
-        <v>56.43</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="J19" s="8">
-        <v>22.66</v>
+        <v>3.33</v>
       </c>
       <c r="K19" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L19" s="6">
-        <v>2.09469577931507</v>
+        <v>0.13707703232876711</v>
       </c>
       <c r="M19" s="6">
-        <v>9.4047070684931497E-2</v>
+        <v>0.21776776767123288</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1450,40 +1450,40 @@
         <v>77</v>
       </c>
       <c r="B20" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D20" s="8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F20" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8">
-        <v>133.34</v>
+        <v>72.41</v>
       </c>
       <c r="I20" s="8">
-        <v>56.43</v>
+        <v>72.41</v>
       </c>
       <c r="J20" s="8">
-        <v>22.66</v>
+        <v>8.33</v>
       </c>
       <c r="K20" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L20" s="6">
-        <v>1.8975217043150701</v>
+        <v>1.1440956521917811</v>
       </c>
       <c r="M20" s="6">
-        <v>9.4047070684931497E-2</v>
+        <v>0.54474639780821932</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1491,40 +1491,40 @@
         <v>77</v>
       </c>
       <c r="B21" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D21" s="8">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8">
         <v>6</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8">
-        <v>133.34</v>
+        <v>43.45</v>
       </c>
       <c r="I21" s="8">
-        <v>56.43</v>
+        <v>43.45</v>
       </c>
       <c r="J21" s="8">
-        <v>22.66</v>
+        <v>5</v>
       </c>
       <c r="K21" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L21" s="6">
-        <v>1.8975217043150701</v>
+        <v>0.892561869863014</v>
       </c>
       <c r="M21" s="6">
-        <v>9.4047070684931497E-2</v>
+        <v>0.3269786301369863</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1532,16 +1532,16 @@
         <v>77</v>
       </c>
       <c r="B22" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D22" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F22" s="8">
         <v>1</v>
@@ -1550,22 +1550,22 @@
         <v>15</v>
       </c>
       <c r="H22" s="8">
-        <v>133.34</v>
+        <v>28.97</v>
       </c>
       <c r="I22" s="8">
-        <v>56.43</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="J22" s="8">
-        <v>22.66</v>
+        <v>3.33</v>
       </c>
       <c r="K22" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L22" s="6">
-        <v>1.8975217043150701</v>
+        <v>0.13707703232876711</v>
       </c>
       <c r="M22" s="6">
-        <v>9.4047070684931497E-2</v>
+        <v>0.21776776767123288</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1573,10 +1573,10 @@
         <v>77</v>
       </c>
       <c r="B23" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D23" s="8">
         <v>9</v>
@@ -1591,22 +1591,22 @@
         <v>20</v>
       </c>
       <c r="H23" s="8">
-        <v>133.34</v>
+        <v>72.41</v>
       </c>
       <c r="I23" s="8">
-        <v>133.34</v>
+        <v>72.41</v>
       </c>
       <c r="J23" s="8">
-        <v>22.66</v>
+        <v>8.33</v>
       </c>
       <c r="K23" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L23" s="6">
-        <v>4.6297910293150704</v>
+        <v>1.2585524021917811</v>
       </c>
       <c r="M23" s="6">
-        <v>9.4047070684931497E-2</v>
+        <v>0.54474639780821932</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1614,16 +1614,16 @@
         <v>77</v>
       </c>
       <c r="B24" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D24" s="8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="8">
         <v>1</v>
@@ -1632,22 +1632,22 @@
         <v>15</v>
       </c>
       <c r="H24" s="8">
-        <v>53.34</v>
+        <v>72.41</v>
       </c>
       <c r="I24" s="8">
-        <v>22.57</v>
+        <v>50.21</v>
       </c>
       <c r="J24" s="8">
-        <v>9.06</v>
+        <v>8.33</v>
       </c>
       <c r="K24" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L24" s="6">
-        <v>0.72488737315068497</v>
+        <v>0.37723542719178099</v>
       </c>
       <c r="M24" s="6">
-        <v>3.7602226849315072E-2</v>
+        <v>0.54474639780821932</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1655,40 +1655,40 @@
         <v>77</v>
       </c>
       <c r="B25" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D25" s="8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H25" s="8">
-        <v>80</v>
+        <v>72.41</v>
       </c>
       <c r="I25" s="8">
-        <v>80</v>
+        <v>50.21</v>
       </c>
       <c r="J25" s="8">
-        <v>13.6</v>
+        <v>8.33</v>
       </c>
       <c r="K25" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L25" s="6">
-        <v>3.3415491561643802</v>
+        <v>0.37723542719178099</v>
       </c>
       <c r="M25" s="6">
-        <v>5.6444843835616432E-2</v>
+        <v>0.54474639780821932</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1696,16 +1696,16 @@
         <v>77</v>
       </c>
       <c r="B26" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D26" s="8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26" s="8">
         <v>1</v>
@@ -1714,22 +1714,22 @@
         <v>15</v>
       </c>
       <c r="H26" s="8">
-        <v>53.34</v>
+        <v>72.41</v>
       </c>
       <c r="I26" s="8">
-        <v>22.57</v>
+        <v>50.21</v>
       </c>
       <c r="J26" s="8">
-        <v>9.06</v>
+        <v>8.33</v>
       </c>
       <c r="K26" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L26" s="6">
-        <v>0.72488737315068497</v>
+        <v>0.43446380219178099</v>
       </c>
       <c r="M26" s="6">
-        <v>3.7602226849315072E-2</v>
+        <v>0.54474639780821932</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1737,40 +1737,40 @@
         <v>77</v>
       </c>
       <c r="B27" s="8">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="8">
-        <v>13</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="8">
-        <v>6</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H27" s="8">
-        <v>80</v>
+        <v>50.21</v>
       </c>
       <c r="I27" s="8">
-        <v>80</v>
+        <v>50.21</v>
       </c>
       <c r="J27" s="8">
-        <v>13.6</v>
+        <v>3.05</v>
       </c>
       <c r="K27" s="8">
-        <v>10.52</v>
+        <v>5</v>
       </c>
       <c r="L27" s="6">
-        <v>3.3415491561643802</v>
+        <v>4.7128767123287667E-2</v>
       </c>
       <c r="M27" s="6">
-        <v>5.6444843835616432E-2</v>
+        <v>7.4871232876712324E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1778,40 +1778,40 @@
         <v>77</v>
       </c>
       <c r="B28" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D28" s="8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F28" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" s="8">
-        <v>53.34</v>
+        <v>22.2</v>
       </c>
       <c r="I28" s="8">
-        <v>22.57</v>
+        <v>0</v>
       </c>
       <c r="J28" s="8">
-        <v>9.06</v>
+        <v>5.28</v>
       </c>
       <c r="K28" s="8">
-        <v>10.52</v>
+        <v>18.13</v>
       </c>
       <c r="L28" s="6">
-        <v>0.72488737315068497</v>
+        <v>0.38739931561643798</v>
       </c>
       <c r="M28" s="6">
-        <v>3.7602226849315072E-2</v>
+        <v>0.46997728438356151</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1819,40 +1819,40 @@
         <v>77</v>
       </c>
       <c r="B29" s="8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D29" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H29" s="8">
-        <v>80</v>
+        <v>63.62</v>
       </c>
       <c r="I29" s="8">
-        <v>80</v>
+        <v>44.04</v>
       </c>
       <c r="J29" s="8">
-        <v>13.6</v>
+        <v>7.35</v>
       </c>
       <c r="K29" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L29" s="6">
-        <v>3.3415491561643802</v>
+        <v>0.33689443869863001</v>
       </c>
       <c r="M29" s="6">
-        <v>5.6444843835616432E-2</v>
+        <v>0.48065858630136987</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1860,40 +1860,40 @@
         <v>77</v>
       </c>
       <c r="B30" s="8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D30" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8">
-        <v>133.34</v>
+        <v>38.17</v>
       </c>
       <c r="I30" s="8">
-        <v>56.43</v>
+        <v>38.17</v>
       </c>
       <c r="J30" s="8">
-        <v>22.66</v>
+        <v>4.41</v>
       </c>
       <c r="K30" s="8">
-        <v>10.52</v>
+        <v>13.32</v>
       </c>
       <c r="L30" s="6">
-        <v>1.8975217043150701</v>
+        <v>0.86827494821917806</v>
       </c>
       <c r="M30" s="6">
-        <v>9.4047070684931497E-2</v>
+        <v>0.28839515178082192</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1901,40 +1901,40 @@
         <v>77</v>
       </c>
       <c r="B31" s="8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D31" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F31" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H31" s="8">
-        <v>12.56</v>
+        <v>25.45</v>
       </c>
       <c r="I31" s="8">
-        <v>12.56</v>
+        <v>17.61</v>
       </c>
       <c r="J31" s="8">
-        <v>1.37</v>
+        <v>2.94</v>
       </c>
       <c r="K31" s="8">
-        <v>11.8</v>
+        <v>13.32</v>
       </c>
       <c r="L31" s="6">
-        <v>0.57376112499999998</v>
+        <v>0.12102296547945204</v>
       </c>
       <c r="M31" s="6">
-        <v>0</v>
+        <v>0.19226343452054795</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,40 +1942,40 @@
         <v>77</v>
       </c>
       <c r="B32" s="8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D32" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F32" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8">
-        <v>12.56</v>
+        <v>38.17</v>
       </c>
       <c r="I32" s="8">
-        <v>12.56</v>
+        <v>38.17</v>
       </c>
       <c r="J32" s="8">
-        <v>1.37</v>
+        <v>4.41</v>
       </c>
       <c r="K32" s="8">
-        <v>11.8</v>
+        <v>13.32</v>
       </c>
       <c r="L32" s="6">
-        <v>0.57376112499999998</v>
+        <v>0.86827494821917806</v>
       </c>
       <c r="M32" s="6">
-        <v>0</v>
+        <v>0.28839515178082192</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1983,40 +1983,40 @@
         <v>77</v>
       </c>
       <c r="B33" s="8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D33" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F33" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H33" s="8">
-        <v>9.11</v>
+        <v>25.45</v>
       </c>
       <c r="I33" s="8">
-        <v>9.11</v>
+        <v>17.61</v>
       </c>
       <c r="J33" s="8">
-        <v>0.97</v>
+        <v>2.94</v>
       </c>
       <c r="K33" s="8">
-        <v>11.8</v>
+        <v>13.32</v>
       </c>
       <c r="L33" s="6">
-        <v>0.44711450000000003</v>
+        <v>0.12102296547945204</v>
       </c>
       <c r="M33" s="6">
-        <v>0</v>
+        <v>0.19226343452054795</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2024,10 +2024,10 @@
         <v>77</v>
       </c>
       <c r="B34" s="8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D34" s="8">
         <v>12</v>
@@ -2036,28 +2036,28 @@
         <v>28</v>
       </c>
       <c r="F34" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H34" s="8">
-        <v>9.11</v>
+        <v>63.62</v>
       </c>
       <c r="I34" s="8">
-        <v>9.11</v>
+        <v>63.62</v>
       </c>
       <c r="J34" s="8">
-        <v>0.97</v>
+        <v>7.35</v>
       </c>
       <c r="K34" s="8">
-        <v>11.8</v>
+        <v>13.32</v>
       </c>
       <c r="L34" s="6">
-        <v>0.44711450000000003</v>
+        <v>1.10375466369863</v>
       </c>
       <c r="M34" s="6">
-        <v>0</v>
+        <v>0.48065858630136987</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2065,40 +2065,40 @@
         <v>77</v>
       </c>
       <c r="B35" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D35" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F35" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H35" s="8">
-        <v>23.5</v>
+        <v>38.17</v>
       </c>
       <c r="I35" s="8">
-        <v>15.56</v>
+        <v>38.17</v>
       </c>
       <c r="J35" s="8">
-        <v>2.72</v>
+        <v>4.41</v>
       </c>
       <c r="K35" s="8">
-        <v>13</v>
+        <v>13.32</v>
       </c>
       <c r="L35" s="6">
-        <v>0.28288000000000002</v>
+        <v>0.86827494821917806</v>
       </c>
       <c r="M35" s="6">
-        <v>0</v>
+        <v>0.28839515178082192</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2106,40 +2106,40 @@
         <v>77</v>
       </c>
       <c r="B36" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D36" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H36" s="8">
-        <v>15.56</v>
+        <v>25.45</v>
       </c>
       <c r="I36" s="8">
-        <v>15.56</v>
+        <v>17.61</v>
       </c>
       <c r="J36" s="8">
-        <v>0.91</v>
+        <v>2.94</v>
       </c>
       <c r="K36" s="8">
-        <v>5</v>
+        <v>13.32</v>
       </c>
       <c r="L36" s="6">
-        <v>3.6399999999999995E-2</v>
+        <v>0.12102296547945204</v>
       </c>
       <c r="M36" s="6">
-        <v>0</v>
+        <v>0.19226343452054795</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2147,40 +2147,40 @@
         <v>77</v>
       </c>
       <c r="B37" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D37" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F37" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H37" s="8">
-        <v>7.93</v>
+        <v>63.62</v>
       </c>
       <c r="I37" s="8">
-        <v>0</v>
+        <v>63.62</v>
       </c>
       <c r="J37" s="8">
-        <v>1.82</v>
+        <v>7.35</v>
       </c>
       <c r="K37" s="8">
-        <v>17</v>
+        <v>13.32</v>
       </c>
       <c r="L37" s="6">
-        <v>0.46973656250000001</v>
+        <v>1.21821141369863</v>
       </c>
       <c r="M37" s="6">
-        <v>0</v>
+        <v>0.48065858630136987</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2188,16 +2188,16 @@
         <v>77</v>
       </c>
       <c r="B38" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D38" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F38" s="8">
         <v>1</v>
@@ -2206,22 +2206,22 @@
         <v>15</v>
       </c>
       <c r="H38" s="8">
-        <v>23.5</v>
+        <v>63.62</v>
       </c>
       <c r="I38" s="8">
-        <v>15.56</v>
+        <v>44.04</v>
       </c>
       <c r="J38" s="8">
-        <v>2.72</v>
+        <v>7.35</v>
       </c>
       <c r="K38" s="8">
-        <v>13</v>
+        <v>13.32</v>
       </c>
       <c r="L38" s="6">
-        <v>0.50509656250000001</v>
+        <v>0.33689443869863001</v>
       </c>
       <c r="M38" s="6">
-        <v>0</v>
+        <v>0.48065858630136987</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2229,16 +2229,16 @@
         <v>77</v>
       </c>
       <c r="B39" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D39" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" s="8">
         <v>1</v>
@@ -2247,22 +2247,22 @@
         <v>15</v>
       </c>
       <c r="H39" s="8">
-        <v>23.5</v>
+        <v>63.62</v>
       </c>
       <c r="I39" s="8">
-        <v>15.56</v>
+        <v>44.04</v>
       </c>
       <c r="J39" s="8">
-        <v>2.72</v>
+        <v>7.35</v>
       </c>
       <c r="K39" s="8">
-        <v>13</v>
+        <v>13.32</v>
       </c>
       <c r="L39" s="6">
-        <v>0.37176662500000002</v>
+        <v>0.33689443869863001</v>
       </c>
       <c r="M39" s="6">
-        <v>0</v>
+        <v>0.48065858630136987</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2270,16 +2270,16 @@
         <v>77</v>
       </c>
       <c r="B40" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D40" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F40" s="8">
         <v>1</v>
@@ -2288,22 +2288,22 @@
         <v>15</v>
       </c>
       <c r="H40" s="8">
-        <v>23.5</v>
+        <v>63.62</v>
       </c>
       <c r="I40" s="8">
-        <v>15.56</v>
+        <v>44.04</v>
       </c>
       <c r="J40" s="8">
-        <v>2.72</v>
+        <v>7.35</v>
       </c>
       <c r="K40" s="8">
-        <v>13</v>
+        <v>13.32</v>
       </c>
       <c r="L40" s="6">
-        <v>0.37176662500000002</v>
+        <v>0.39412281369863</v>
       </c>
       <c r="M40" s="6">
-        <v>0</v>
+        <v>0.48065858630136987</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2311,40 +2311,40 @@
         <v>77</v>
       </c>
       <c r="B41" s="8">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="8">
+        <v>3</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="8">
+        <v>44.04</v>
+      </c>
+      <c r="I41" s="8">
+        <v>44.04</v>
+      </c>
+      <c r="J41" s="8">
+        <v>2.69</v>
+      </c>
+      <c r="K41" s="8">
         <v>5</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="8">
-        <v>7</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="8">
-        <v>23.5</v>
-      </c>
-      <c r="I41" s="8">
-        <v>15.56</v>
-      </c>
-      <c r="J41" s="8">
-        <v>2.72</v>
-      </c>
-      <c r="K41" s="8">
-        <v>13</v>
-      </c>
       <c r="L41" s="6">
-        <v>0.37176662500000002</v>
+        <v>4.1566027397260272E-2</v>
       </c>
       <c r="M41" s="6">
-        <v>0</v>
+        <v>6.6033972602739729E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2352,40 +2352,40 @@
         <v>77</v>
       </c>
       <c r="B42" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D42" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F42" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H42" s="8">
-        <v>23.5</v>
+        <v>19.59</v>
       </c>
       <c r="I42" s="8">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="J42" s="8">
-        <v>2.72</v>
+        <v>4.66</v>
       </c>
       <c r="K42" s="8">
-        <v>13</v>
+        <v>18.13</v>
       </c>
       <c r="L42" s="6">
-        <v>1.40877725</v>
+        <v>0.35266124219178102</v>
       </c>
       <c r="M42" s="6">
-        <v>0</v>
+        <v>0.41479055780821922</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2393,16 +2393,16 @@
         <v>77</v>
       </c>
       <c r="B43" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" s="8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
@@ -2411,22 +2411,22 @@
         <v>15</v>
       </c>
       <c r="H43" s="8">
-        <v>9.4</v>
+        <v>133.34</v>
       </c>
       <c r="I43" s="8">
-        <v>6.23</v>
+        <v>56.43</v>
       </c>
       <c r="J43" s="8">
-        <v>1.0900000000000001</v>
+        <v>22.66</v>
       </c>
       <c r="K43" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L43" s="6">
-        <v>0.11335999999999999</v>
+        <v>1.8975217043150701</v>
       </c>
       <c r="M43" s="6">
-        <v>0</v>
+        <v>9.4047070684931497E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2434,16 +2434,16 @@
         <v>77</v>
       </c>
       <c r="B44" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D44" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F44" s="8">
         <v>6</v>
@@ -2452,22 +2452,22 @@
         <v>20</v>
       </c>
       <c r="H44" s="8">
-        <v>14.1</v>
+        <v>80</v>
       </c>
       <c r="I44" s="8">
-        <v>14.1</v>
+        <v>80</v>
       </c>
       <c r="J44" s="8">
-        <v>1.63</v>
+        <v>13.6</v>
       </c>
       <c r="K44" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L44" s="6">
-        <v>1.0880151250000001</v>
+        <v>3.3415491561643802</v>
       </c>
       <c r="M44" s="6">
-        <v>0</v>
+        <v>5.6444843835616432E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2475,40 +2475,40 @@
         <v>77</v>
       </c>
       <c r="B45" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D45" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F45" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H45" s="8">
-        <v>23.5</v>
+        <v>53.34</v>
       </c>
       <c r="I45" s="8">
-        <v>23.5</v>
+        <v>22.57</v>
       </c>
       <c r="J45" s="8">
-        <v>2.72</v>
+        <v>9.06</v>
       </c>
       <c r="K45" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L45" s="6">
-        <v>1.231004</v>
+        <v>0.72488737315068497</v>
       </c>
       <c r="M45" s="6">
-        <v>0</v>
+        <v>3.7602226849315072E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2516,10 +2516,10 @@
         <v>77</v>
       </c>
       <c r="B46" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D46" s="8">
         <v>13</v>
@@ -2528,28 +2528,28 @@
         <v>22</v>
       </c>
       <c r="F46" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H46" s="8">
-        <v>9.4</v>
+        <v>80</v>
       </c>
       <c r="I46" s="8">
-        <v>6.23</v>
+        <v>80</v>
       </c>
       <c r="J46" s="8">
-        <v>1.0900000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="K46" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L46" s="6">
-        <v>0.11335999999999999</v>
+        <v>3.3415491561643802</v>
       </c>
       <c r="M46" s="6">
-        <v>0</v>
+        <v>5.6444843835616432E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2557,10 +2557,10 @@
         <v>77</v>
       </c>
       <c r="B47" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D47" s="8">
         <v>13</v>
@@ -2569,28 +2569,28 @@
         <v>22</v>
       </c>
       <c r="F47" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H47" s="8">
-        <v>14.1</v>
+        <v>53.34</v>
       </c>
       <c r="I47" s="8">
-        <v>14.1</v>
+        <v>22.57</v>
       </c>
       <c r="J47" s="8">
-        <v>1.63</v>
+        <v>9.06</v>
       </c>
       <c r="K47" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L47" s="6">
-        <v>1.0880151250000001</v>
+        <v>0.72488737315068497</v>
       </c>
       <c r="M47" s="6">
-        <v>0</v>
+        <v>3.7602226849315072E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2598,40 +2598,40 @@
         <v>77</v>
       </c>
       <c r="B48" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D48" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F48" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H48" s="8">
-        <v>9.4</v>
+        <v>80</v>
       </c>
       <c r="I48" s="8">
-        <v>6.23</v>
+        <v>80</v>
       </c>
       <c r="J48" s="8">
-        <v>1.0900000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="K48" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L48" s="6">
-        <v>0.11335999999999999</v>
+        <v>3.3415491561643802</v>
       </c>
       <c r="M48" s="6">
-        <v>0</v>
+        <v>5.6444843835616432E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2639,40 +2639,40 @@
         <v>77</v>
       </c>
       <c r="B49" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D49" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F49" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H49" s="8">
-        <v>14.1</v>
+        <v>53.34</v>
       </c>
       <c r="I49" s="8">
-        <v>14.1</v>
+        <v>22.57</v>
       </c>
       <c r="J49" s="8">
-        <v>1.63</v>
+        <v>9.06</v>
       </c>
       <c r="K49" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L49" s="6">
-        <v>1.0880151250000001</v>
+        <v>0.72488737315068497</v>
       </c>
       <c r="M49" s="6">
-        <v>0</v>
+        <v>3.7602226849315072E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2680,40 +2680,40 @@
         <v>77</v>
       </c>
       <c r="B50" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F50" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H50" s="8">
-        <v>23.5</v>
+        <v>133.34</v>
       </c>
       <c r="I50" s="8">
-        <v>15.56</v>
+        <v>133.34</v>
       </c>
       <c r="J50" s="8">
-        <v>2.72</v>
+        <v>22.66</v>
       </c>
       <c r="K50" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L50" s="6">
-        <v>0.37176662500000002</v>
+        <v>4.6297910293150704</v>
       </c>
       <c r="M50" s="6">
-        <v>0</v>
+        <v>9.4047070684931497E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2721,16 +2721,16 @@
         <v>77</v>
       </c>
       <c r="B51" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D51" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F51" s="8">
         <v>1</v>
@@ -2739,22 +2739,22 @@
         <v>15</v>
       </c>
       <c r="H51" s="8">
-        <v>18.39</v>
+        <v>133.34</v>
       </c>
       <c r="I51" s="8">
-        <v>12.1</v>
+        <v>56.43</v>
       </c>
       <c r="J51" s="8">
-        <v>2.16</v>
+        <v>22.66</v>
       </c>
       <c r="K51" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L51" s="6">
-        <v>0.22464000000000001</v>
+        <v>1.8975217043150701</v>
       </c>
       <c r="M51" s="6">
-        <v>0</v>
+        <v>9.4047070684931497E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2762,40 +2762,40 @@
         <v>77</v>
       </c>
       <c r="B52" s="8">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="8">
         <v>6</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="8">
-        <v>3</v>
-      </c>
       <c r="E52" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F52" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H52" s="8">
-        <v>12.1</v>
+        <v>133.34</v>
       </c>
       <c r="I52" s="8">
-        <v>12.1</v>
+        <v>56.43</v>
       </c>
       <c r="J52" s="8">
-        <v>0.72</v>
+        <v>22.66</v>
       </c>
       <c r="K52" s="8">
-        <v>5</v>
+        <v>10.52</v>
       </c>
       <c r="L52" s="6">
-        <v>2.8799999999999999E-2</v>
+        <v>1.8975217043150701</v>
       </c>
       <c r="M52" s="6">
-        <v>0</v>
+        <v>9.4047070684931497E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2803,40 +2803,40 @@
         <v>77</v>
       </c>
       <c r="B53" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D53" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F53" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H53" s="8">
-        <v>6.29</v>
+        <v>133.34</v>
       </c>
       <c r="I53" s="8">
-        <v>0</v>
+        <v>56.43</v>
       </c>
       <c r="J53" s="8">
-        <v>1.44</v>
+        <v>22.66</v>
       </c>
       <c r="K53" s="8">
-        <v>17</v>
+        <v>10.52</v>
       </c>
       <c r="L53" s="6">
-        <v>0.37361325000000001</v>
+        <v>1.8975217043150701</v>
       </c>
       <c r="M53" s="6">
-        <v>0</v>
+        <v>9.4047070684931497E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2844,10 +2844,10 @@
         <v>77</v>
       </c>
       <c r="B54" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D54" s="8">
         <v>4</v>
@@ -2862,22 +2862,22 @@
         <v>15</v>
       </c>
       <c r="H54" s="8">
-        <v>18.39</v>
+        <v>133.34</v>
       </c>
       <c r="I54" s="8">
-        <v>12.1</v>
+        <v>56.43</v>
       </c>
       <c r="J54" s="8">
-        <v>2.16</v>
+        <v>22.66</v>
       </c>
       <c r="K54" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L54" s="6">
-        <v>0.40241325</v>
+        <v>2.09469577931507</v>
       </c>
       <c r="M54" s="6">
-        <v>0</v>
+        <v>9.4047070684931497E-2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2885,40 +2885,40 @@
         <v>77</v>
       </c>
       <c r="B55" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D55" s="8">
+        <v>3</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="8">
+        <v>2</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="8">
+        <v>56.43</v>
+      </c>
+      <c r="I55" s="8">
+        <v>56.43</v>
+      </c>
+      <c r="J55" s="8">
+        <v>7.95</v>
+      </c>
+      <c r="K55" s="8">
         <v>5</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="8">
-        <v>1</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="8">
-        <v>18.39</v>
-      </c>
-      <c r="I55" s="8">
-        <v>12.1</v>
-      </c>
-      <c r="J55" s="8">
-        <v>2.16</v>
-      </c>
-      <c r="K55" s="8">
-        <v>13</v>
-      </c>
       <c r="L55" s="6">
-        <v>0.28389775</v>
+        <v>0.30231780821917809</v>
       </c>
       <c r="M55" s="6">
-        <v>0</v>
+        <v>1.5682191780821919E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2926,40 +2926,40 @@
         <v>77</v>
       </c>
       <c r="B56" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D56" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F56" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" s="8">
-        <v>18.39</v>
+        <v>76.91</v>
       </c>
       <c r="I56" s="8">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="8">
-        <v>2.16</v>
+        <v>14.71</v>
       </c>
       <c r="K56" s="8">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="L56" s="6">
-        <v>0.28389775</v>
+        <v>1.7920113869862999</v>
       </c>
       <c r="M56" s="6">
-        <v>0</v>
+        <v>7.8345863013698627E-2</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2967,16 +2967,16 @@
         <v>77</v>
       </c>
       <c r="B57" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D57" s="8">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F57" s="8">
         <v>1</v>
@@ -2985,22 +2985,22 @@
         <v>15</v>
       </c>
       <c r="H57" s="8">
-        <v>18.39</v>
+        <v>161.03</v>
       </c>
       <c r="I57" s="8">
-        <v>12.1</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="J57" s="8">
-        <v>2.16</v>
+        <v>28.06</v>
       </c>
       <c r="K57" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L57" s="6">
-        <v>0.28389775</v>
+        <v>2.3577415060273998</v>
       </c>
       <c r="M57" s="6">
-        <v>0</v>
+        <v>0.11645899397260273</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3008,16 +3008,16 @@
         <v>77</v>
       </c>
       <c r="B58" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D58" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F58" s="8">
         <v>6</v>
@@ -3026,22 +3026,22 @@
         <v>20</v>
       </c>
       <c r="H58" s="8">
-        <v>18.39</v>
+        <v>96.62</v>
       </c>
       <c r="I58" s="8">
-        <v>18.39</v>
+        <v>96.62</v>
       </c>
       <c r="J58" s="8">
-        <v>2.16</v>
+        <v>16.84</v>
       </c>
       <c r="K58" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L58" s="6">
-        <v>1.0838773749999999</v>
+        <v>4.1641349021917797</v>
       </c>
       <c r="M58" s="6">
-        <v>0</v>
+        <v>6.9891997808219183E-2</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3049,16 +3049,16 @@
         <v>77</v>
       </c>
       <c r="B59" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D59" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F59" s="8">
         <v>1</v>
@@ -3067,22 +3067,22 @@
         <v>15</v>
       </c>
       <c r="H59" s="8">
-        <v>7.36</v>
+        <v>64.41</v>
       </c>
       <c r="I59" s="8">
-        <v>4.84</v>
+        <v>27.26</v>
       </c>
       <c r="J59" s="8">
-        <v>0.86</v>
+        <v>11.23</v>
       </c>
       <c r="K59" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L59" s="6">
-        <v>8.9439999999999992E-2</v>
+        <v>0.89850830027397266</v>
       </c>
       <c r="M59" s="6">
-        <v>0</v>
+        <v>4.6608499726027403E-2</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3090,16 +3090,16 @@
         <v>77</v>
       </c>
       <c r="B60" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D60" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F60" s="8">
         <v>6</v>
@@ -3108,22 +3108,22 @@
         <v>20</v>
       </c>
       <c r="H60" s="8">
-        <v>11.04</v>
+        <v>96.62</v>
       </c>
       <c r="I60" s="8">
-        <v>11.04</v>
+        <v>96.62</v>
       </c>
       <c r="J60" s="8">
-        <v>1.3</v>
+        <v>16.84</v>
       </c>
       <c r="K60" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L60" s="6">
-        <v>0.81666412499999996</v>
+        <v>4.1641349021917797</v>
       </c>
       <c r="M60" s="6">
-        <v>0</v>
+        <v>6.9891997808219183E-2</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3131,40 +3131,40 @@
         <v>77</v>
       </c>
       <c r="B61" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D61" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F61" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H61" s="8">
-        <v>18.39</v>
+        <v>64.41</v>
       </c>
       <c r="I61" s="8">
-        <v>18.39</v>
+        <v>27.26</v>
       </c>
       <c r="J61" s="8">
-        <v>2.16</v>
+        <v>11.23</v>
       </c>
       <c r="K61" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L61" s="6">
-        <v>0.93573300000000004</v>
+        <v>0.89850830027397266</v>
       </c>
       <c r="M61" s="6">
-        <v>0</v>
+        <v>4.6608499726027403E-2</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3172,40 +3172,40 @@
         <v>77</v>
       </c>
       <c r="B62" s="8">
+        <v>1</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="8">
+        <v>11</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="8">
         <v>6</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="8">
-        <v>13</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="8">
-        <v>1</v>
-      </c>
       <c r="G62" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H62" s="8">
-        <v>7.36</v>
+        <v>96.62</v>
       </c>
       <c r="I62" s="8">
-        <v>4.84</v>
+        <v>96.62</v>
       </c>
       <c r="J62" s="8">
-        <v>0.86</v>
+        <v>16.84</v>
       </c>
       <c r="K62" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L62" s="6">
-        <v>8.9439999999999992E-2</v>
+        <v>4.1641349021917797</v>
       </c>
       <c r="M62" s="6">
-        <v>0</v>
+        <v>6.9891997808219183E-2</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3213,40 +3213,40 @@
         <v>77</v>
       </c>
       <c r="B63" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D63" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F63" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H63" s="8">
-        <v>11.04</v>
+        <v>64.41</v>
       </c>
       <c r="I63" s="8">
-        <v>11.04</v>
+        <v>27.26</v>
       </c>
       <c r="J63" s="8">
-        <v>1.3</v>
+        <v>11.23</v>
       </c>
       <c r="K63" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L63" s="6">
-        <v>0.81666412499999996</v>
+        <v>0.89850830027397266</v>
       </c>
       <c r="M63" s="6">
-        <v>0</v>
+        <v>4.6608499726027403E-2</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3254,40 +3254,40 @@
         <v>77</v>
       </c>
       <c r="B64" s="8">
+        <v>1</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="8">
+        <v>9</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="8">
         <v>6</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="8">
-        <v>14</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="8">
-        <v>1</v>
-      </c>
       <c r="G64" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H64" s="8">
-        <v>7.36</v>
+        <v>161.03</v>
       </c>
       <c r="I64" s="8">
-        <v>4.84</v>
+        <v>161.03</v>
       </c>
       <c r="J64" s="8">
-        <v>0.86</v>
+        <v>28.06</v>
       </c>
       <c r="K64" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L64" s="6">
-        <v>8.9439999999999992E-2</v>
+        <v>5.6251976060273998</v>
       </c>
       <c r="M64" s="6">
-        <v>0</v>
+        <v>0.11645899397260273</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3295,40 +3295,40 @@
         <v>77</v>
       </c>
       <c r="B65" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D65" s="8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F65" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H65" s="8">
-        <v>11.04</v>
+        <v>161.03</v>
       </c>
       <c r="I65" s="8">
-        <v>11.04</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="J65" s="8">
-        <v>1.3</v>
+        <v>28.06</v>
       </c>
       <c r="K65" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L65" s="6">
-        <v>0.81666412499999996</v>
+        <v>2.3577415060273998</v>
       </c>
       <c r="M65" s="6">
-        <v>0</v>
+        <v>0.11645899397260273</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3336,16 +3336,16 @@
         <v>77</v>
       </c>
       <c r="B66" s="8">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="8">
         <v>6</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="8">
-        <v>49</v>
-      </c>
       <c r="E66" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F66" s="8">
         <v>1</v>
@@ -3354,22 +3354,22 @@
         <v>15</v>
       </c>
       <c r="H66" s="8">
-        <v>18.39</v>
+        <v>161.03</v>
       </c>
       <c r="I66" s="8">
-        <v>12.1</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="J66" s="8">
-        <v>2.16</v>
+        <v>28.06</v>
       </c>
       <c r="K66" s="8">
-        <v>13</v>
+        <v>10.52</v>
       </c>
       <c r="L66" s="6">
-        <v>0.28389775</v>
+        <v>2.3577415060273998</v>
       </c>
       <c r="M66" s="6">
-        <v>0</v>
+        <v>0.11645899397260273</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3377,40 +3377,40 @@
         <v>77</v>
       </c>
       <c r="B67" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D67" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F67" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H67" s="8">
-        <v>26.73</v>
+        <v>161.03</v>
       </c>
       <c r="I67" s="8">
-        <v>26.73</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="J67" s="8">
-        <v>2.46</v>
+        <v>28.06</v>
       </c>
       <c r="K67" s="8">
-        <v>11.8</v>
+        <v>10.52</v>
       </c>
       <c r="L67" s="6">
-        <v>0.67665712499999997</v>
+        <v>2.3577415060273998</v>
       </c>
       <c r="M67" s="6">
-        <v>0</v>
+        <v>0.11645899397260273</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3418,40 +3418,40 @@
         <v>77</v>
       </c>
       <c r="B68" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D68" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F68" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H68" s="8">
-        <v>26.73</v>
+        <v>161.03</v>
       </c>
       <c r="I68" s="8">
-        <v>26.73</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="J68" s="8">
-        <v>2.46</v>
+        <v>28.06</v>
       </c>
       <c r="K68" s="8">
-        <v>11.8</v>
+        <v>10.52</v>
       </c>
       <c r="L68" s="6">
-        <v>0.67665712499999997</v>
+        <v>2.5830833060274001</v>
       </c>
       <c r="M68" s="6">
-        <v>0</v>
+        <v>0.11645899397260273</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3459,40 +3459,40 @@
         <v>77</v>
       </c>
       <c r="B69" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D69" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F69" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H69" s="8">
-        <v>20.05</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="I69" s="8">
-        <v>20.05</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="J69" s="8">
-        <v>1.84</v>
+        <v>9.85</v>
       </c>
       <c r="K69" s="8">
-        <v>11.8</v>
+        <v>5</v>
       </c>
       <c r="L69" s="6">
-        <v>0.52924249999999995</v>
+        <v>0.3745698630136986</v>
       </c>
       <c r="M69" s="6">
-        <v>0</v>
+        <v>1.9430136986301371E-2</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3500,40 +3500,40 @@
         <v>77</v>
       </c>
       <c r="B70" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D70" s="8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F70" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H70" s="8">
-        <v>20.05</v>
+        <v>92.89</v>
       </c>
       <c r="I70" s="8">
-        <v>20.05</v>
+        <v>0</v>
       </c>
       <c r="J70" s="8">
-        <v>1.84</v>
+        <v>18.22</v>
       </c>
       <c r="K70" s="8">
-        <v>11.8</v>
+        <v>13.5</v>
       </c>
       <c r="L70" s="6">
-        <v>0.52924249999999995</v>
+        <v>2.20873248082192</v>
       </c>
       <c r="M70" s="6">
-        <v>0</v>
+        <v>9.7040219178082199E-2</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3541,40 +3541,40 @@
         <v>77</v>
       </c>
       <c r="B71" s="8">
+        <v>8</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="8">
+        <v>12</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="8">
         <v>9</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D71" s="8">
-        <v>2</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="8">
-        <v>1</v>
-      </c>
       <c r="G71" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H71" s="8">
-        <v>37.86</v>
+        <v>20.05</v>
       </c>
       <c r="I71" s="8">
-        <v>25.45</v>
+        <v>20.05</v>
       </c>
       <c r="J71" s="8">
-        <v>4.26</v>
+        <v>1.84</v>
       </c>
       <c r="K71" s="8">
-        <v>15</v>
+        <v>11.8</v>
       </c>
       <c r="L71" s="6">
-        <v>0.32632767123287698</v>
+        <v>0.52924249999999995</v>
       </c>
       <c r="M71" s="6">
-        <v>0.18487232876712328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3582,40 +3582,40 @@
         <v>77</v>
       </c>
       <c r="B72" s="8">
+        <v>8</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="8">
         <v>9</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="8">
-        <v>3</v>
-      </c>
       <c r="E72" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F72" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H72" s="8">
-        <v>25.45</v>
+        <v>20.05</v>
       </c>
       <c r="I72" s="8">
-        <v>25.45</v>
+        <v>20.05</v>
       </c>
       <c r="J72" s="8">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="K72" s="8">
-        <v>5</v>
+        <v>11.8</v>
       </c>
       <c r="L72" s="6">
-        <v>3.6258630136986297E-2</v>
+        <v>0.52924249999999995</v>
       </c>
       <c r="M72" s="6">
-        <v>2.0541369863013699E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3623,40 +3623,40 @@
         <v>77</v>
       </c>
       <c r="B73" s="8">
+        <v>7</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="8">
+        <v>12</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="8">
-        <v>3</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="8">
-        <v>4</v>
-      </c>
       <c r="G73" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H73" s="8">
-        <v>12.41</v>
+        <v>26.73</v>
       </c>
       <c r="I73" s="8">
+        <v>26.73</v>
+      </c>
+      <c r="J73" s="8">
+        <v>2.46</v>
+      </c>
+      <c r="K73" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0.67665712499999997</v>
+      </c>
+      <c r="M73" s="6">
         <v>0</v>
-      </c>
-      <c r="J73" s="8">
-        <v>2.84</v>
-      </c>
-      <c r="K73" s="8">
-        <v>20</v>
-      </c>
-      <c r="L73" s="6">
-        <v>0.41377974109589</v>
-      </c>
-      <c r="M73" s="6">
-        <v>0.16433095890410959</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3664,40 +3664,40 @@
         <v>77</v>
       </c>
       <c r="B74" s="8">
+        <v>7</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="8">
         <v>9</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="8">
-        <v>4</v>
-      </c>
       <c r="E74" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F74" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H74" s="8">
-        <v>37.86</v>
+        <v>26.73</v>
       </c>
       <c r="I74" s="8">
-        <v>25.45</v>
+        <v>26.73</v>
       </c>
       <c r="J74" s="8">
-        <v>4.26</v>
+        <v>2.46</v>
       </c>
       <c r="K74" s="8">
-        <v>15</v>
+        <v>11.8</v>
       </c>
       <c r="L74" s="6">
-        <v>0.45003837123287699</v>
+        <v>0.67665712499999997</v>
       </c>
       <c r="M74" s="6">
-        <v>0.18487232876712328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3711,10 +3711,10 @@
         <v>35</v>
       </c>
       <c r="D75" s="8">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F75" s="8">
         <v>1</v>
@@ -3752,34 +3752,34 @@
         <v>35</v>
       </c>
       <c r="D76" s="8">
+        <v>14</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="8">
         <v>6</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="8">
-        <v>1</v>
-      </c>
       <c r="G76" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H76" s="8">
-        <v>37.86</v>
+        <v>22.72</v>
       </c>
       <c r="I76" s="8">
-        <v>25.45</v>
+        <v>22.72</v>
       </c>
       <c r="J76" s="8">
-        <v>4.26</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K76" s="8">
         <v>15</v>
       </c>
       <c r="L76" s="6">
-        <v>0.367564571232877</v>
+        <v>1.0200749863013701</v>
       </c>
       <c r="M76" s="6">
-        <v>0.18487232876712328</v>
+        <v>0.1106630136986301</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3793,10 +3793,10 @@
         <v>35</v>
       </c>
       <c r="D77" s="8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F77" s="8">
         <v>1</v>
@@ -3805,22 +3805,22 @@
         <v>15</v>
       </c>
       <c r="H77" s="8">
-        <v>37.86</v>
+        <v>15.15</v>
       </c>
       <c r="I77" s="8">
-        <v>25.45</v>
+        <v>10.18</v>
       </c>
       <c r="J77" s="8">
-        <v>4.26</v>
+        <v>1.7</v>
       </c>
       <c r="K77" s="8">
         <v>15</v>
       </c>
       <c r="L77" s="6">
-        <v>0.367564571232877</v>
+        <v>0.13022465753424656</v>
       </c>
       <c r="M77" s="6">
-        <v>0.18487232876712328</v>
+        <v>7.3775342465753416E-2</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3834,10 +3834,10 @@
         <v>35</v>
       </c>
       <c r="D78" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F78" s="8">
         <v>6</v>
@@ -3846,22 +3846,22 @@
         <v>20</v>
       </c>
       <c r="H78" s="8">
-        <v>37.86</v>
+        <v>22.72</v>
       </c>
       <c r="I78" s="8">
-        <v>37.86</v>
+        <v>22.72</v>
       </c>
       <c r="J78" s="8">
-        <v>4.26</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K78" s="8">
         <v>15</v>
       </c>
       <c r="L78" s="6">
-        <v>1.3572501712328771</v>
+        <v>1.0200749863013701</v>
       </c>
       <c r="M78" s="6">
-        <v>0.18487232876712328</v>
+        <v>0.1106630136986301</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3875,10 +3875,10 @@
         <v>35</v>
       </c>
       <c r="D79" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F79" s="8">
         <v>1</v>
@@ -3916,10 +3916,10 @@
         <v>35</v>
       </c>
       <c r="D80" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F80" s="8">
         <v>6</v>
@@ -3928,22 +3928,22 @@
         <v>20</v>
       </c>
       <c r="H80" s="8">
-        <v>22.72</v>
+        <v>37.86</v>
       </c>
       <c r="I80" s="8">
-        <v>22.72</v>
+        <v>37.86</v>
       </c>
       <c r="J80" s="8">
-        <v>2.5499999999999998</v>
+        <v>4.26</v>
       </c>
       <c r="K80" s="8">
         <v>15</v>
       </c>
       <c r="L80" s="6">
-        <v>1.0200749863013701</v>
+        <v>1.1510656712328771</v>
       </c>
       <c r="M80" s="6">
-        <v>0.1106630136986301</v>
+        <v>0.18487232876712328</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3957,10 +3957,10 @@
         <v>35</v>
       </c>
       <c r="D81" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F81" s="8">
         <v>6</v>
@@ -3969,22 +3969,22 @@
         <v>20</v>
       </c>
       <c r="H81" s="8">
-        <v>37.86</v>
+        <v>22.72</v>
       </c>
       <c r="I81" s="8">
-        <v>37.86</v>
+        <v>22.72</v>
       </c>
       <c r="J81" s="8">
-        <v>4.26</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K81" s="8">
         <v>15</v>
       </c>
       <c r="L81" s="6">
-        <v>1.1510656712328771</v>
+        <v>1.0200749863013701</v>
       </c>
       <c r="M81" s="6">
-        <v>0.18487232876712328</v>
+        <v>0.1106630136986301</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3998,10 +3998,10 @@
         <v>35</v>
       </c>
       <c r="D82" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82" s="8">
         <v>1</v>
@@ -4039,10 +4039,10 @@
         <v>35</v>
       </c>
       <c r="D83" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F83" s="8">
         <v>6</v>
@@ -4051,22 +4051,22 @@
         <v>20</v>
       </c>
       <c r="H83" s="8">
-        <v>22.72</v>
+        <v>37.86</v>
       </c>
       <c r="I83" s="8">
-        <v>22.72</v>
+        <v>37.86</v>
       </c>
       <c r="J83" s="8">
-        <v>2.5499999999999998</v>
+        <v>4.26</v>
       </c>
       <c r="K83" s="8">
         <v>15</v>
       </c>
       <c r="L83" s="6">
-        <v>1.0200749863013701</v>
+        <v>1.3572501712328771</v>
       </c>
       <c r="M83" s="6">
-        <v>0.1106630136986301</v>
+        <v>0.18487232876712328</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4080,10 +4080,10 @@
         <v>35</v>
       </c>
       <c r="D84" s="8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F84" s="8">
         <v>1</v>
@@ -4092,22 +4092,22 @@
         <v>15</v>
       </c>
       <c r="H84" s="8">
-        <v>15.15</v>
+        <v>37.86</v>
       </c>
       <c r="I84" s="8">
-        <v>10.18</v>
+        <v>25.45</v>
       </c>
       <c r="J84" s="8">
-        <v>1.7</v>
+        <v>4.26</v>
       </c>
       <c r="K84" s="8">
         <v>15</v>
       </c>
       <c r="L84" s="6">
-        <v>0.13022465753424656</v>
+        <v>0.367564571232877</v>
       </c>
       <c r="M84" s="6">
-        <v>7.3775342465753416E-2</v>
+        <v>0.18487232876712328</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4121,34 +4121,34 @@
         <v>35</v>
       </c>
       <c r="D85" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F85" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H85" s="8">
-        <v>22.72</v>
+        <v>37.86</v>
       </c>
       <c r="I85" s="8">
-        <v>22.72</v>
+        <v>25.45</v>
       </c>
       <c r="J85" s="8">
-        <v>2.5499999999999998</v>
+        <v>4.26</v>
       </c>
       <c r="K85" s="8">
         <v>15</v>
       </c>
       <c r="L85" s="6">
-        <v>1.0200749863013701</v>
+        <v>0.367564571232877</v>
       </c>
       <c r="M85" s="6">
-        <v>0.1106630136986301</v>
+        <v>0.18487232876712328</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4162,10 +4162,10 @@
         <v>35</v>
       </c>
       <c r="D86" s="8">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F86" s="8">
         <v>1</v>
@@ -4197,16 +4197,16 @@
         <v>77</v>
       </c>
       <c r="B87" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D87" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F87" s="8">
         <v>1</v>
@@ -4215,22 +4215,22 @@
         <v>15</v>
       </c>
       <c r="H87" s="8">
-        <v>50.4</v>
+        <v>37.86</v>
       </c>
       <c r="I87" s="8">
-        <v>33.85</v>
+        <v>25.45</v>
       </c>
       <c r="J87" s="8">
-        <v>5.68</v>
+        <v>4.26</v>
       </c>
       <c r="K87" s="8">
         <v>15</v>
       </c>
       <c r="L87" s="6">
-        <v>0.43510356164383601</v>
+        <v>0.45003837123287699</v>
       </c>
       <c r="M87" s="6">
-        <v>0.24649643835616442</v>
+        <v>0.18487232876712328</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4238,10 +4238,10 @@
         <v>77</v>
       </c>
       <c r="B88" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D88" s="8">
         <v>3</v>
@@ -4256,22 +4256,22 @@
         <v>12</v>
       </c>
       <c r="H88" s="8">
-        <v>33.85</v>
+        <v>25.45</v>
       </c>
       <c r="I88" s="8">
-        <v>33.85</v>
+        <v>25.45</v>
       </c>
       <c r="J88" s="8">
-        <v>1.89</v>
+        <v>1.42</v>
       </c>
       <c r="K88" s="8">
         <v>5</v>
       </c>
       <c r="L88" s="6">
-        <v>4.8259726027397261E-2</v>
+        <v>3.6258630136986297E-2</v>
       </c>
       <c r="M88" s="6">
-        <v>2.734027397260274E-2</v>
+        <v>2.0541369863013699E-2</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4279,10 +4279,10 @@
         <v>77</v>
       </c>
       <c r="B89" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D89" s="8">
         <v>3</v>
@@ -4297,22 +4297,22 @@
         <v>13</v>
       </c>
       <c r="H89" s="8">
-        <v>16.55</v>
+        <v>12.41</v>
       </c>
       <c r="I89" s="8">
         <v>0</v>
       </c>
       <c r="J89" s="8">
-        <v>3.78</v>
+        <v>2.84</v>
       </c>
       <c r="K89" s="8">
         <v>20</v>
       </c>
       <c r="L89" s="6">
-        <v>0.54071618321917803</v>
+        <v>0.41377974109589</v>
       </c>
       <c r="M89" s="6">
-        <v>0.21872219178082192</v>
+        <v>0.16433095890410959</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4320,16 +4320,16 @@
         <v>77</v>
       </c>
       <c r="B90" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F90" s="8">
         <v>1</v>
@@ -4338,22 +4338,22 @@
         <v>15</v>
       </c>
       <c r="H90" s="8">
-        <v>50.4</v>
+        <v>37.86</v>
       </c>
       <c r="I90" s="8">
-        <v>33.85</v>
+        <v>25.45</v>
       </c>
       <c r="J90" s="8">
-        <v>5.68</v>
+        <v>4.26</v>
       </c>
       <c r="K90" s="8">
         <v>15</v>
       </c>
       <c r="L90" s="6">
-        <v>0.58974193664383601</v>
+        <v>0.32632767123287698</v>
       </c>
       <c r="M90" s="6">
-        <v>0.24649643835616442</v>
+        <v>0.18487232876712328</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4367,10 +4367,10 @@
         <v>36</v>
       </c>
       <c r="D91" s="8">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F91" s="8">
         <v>1</v>
@@ -4408,34 +4408,34 @@
         <v>36</v>
       </c>
       <c r="D92" s="8">
+        <v>14</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="8">
         <v>6</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="8">
-        <v>1</v>
-      </c>
       <c r="G92" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H92" s="8">
-        <v>50.4</v>
+        <v>30.24</v>
       </c>
       <c r="I92" s="8">
-        <v>33.85</v>
+        <v>30.24</v>
       </c>
       <c r="J92" s="8">
-        <v>5.68</v>
+        <v>3.41</v>
       </c>
       <c r="K92" s="8">
         <v>15</v>
       </c>
       <c r="L92" s="6">
-        <v>0.49695891164383599</v>
+        <v>1.292137842465753</v>
       </c>
       <c r="M92" s="6">
-        <v>0.24649643835616442</v>
+        <v>0.14798465753424656</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4449,10 +4449,10 @@
         <v>36</v>
       </c>
       <c r="D93" s="8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F93" s="8">
         <v>1</v>
@@ -4461,22 +4461,22 @@
         <v>15</v>
       </c>
       <c r="H93" s="8">
-        <v>50.4</v>
+        <v>20.16</v>
       </c>
       <c r="I93" s="8">
-        <v>33.85</v>
+        <v>13.54</v>
       </c>
       <c r="J93" s="8">
-        <v>5.68</v>
+        <v>2.27</v>
       </c>
       <c r="K93" s="8">
         <v>15</v>
       </c>
       <c r="L93" s="6">
-        <v>0.49695891164383599</v>
+        <v>0.17388821917808217</v>
       </c>
       <c r="M93" s="6">
-        <v>0.24649643835616442</v>
+        <v>9.8511780821917791E-2</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4490,10 +4490,10 @@
         <v>36</v>
       </c>
       <c r="D94" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F94" s="8">
         <v>6</v>
@@ -4502,22 +4502,22 @@
         <v>20</v>
       </c>
       <c r="H94" s="8">
-        <v>50.4</v>
+        <v>30.24</v>
       </c>
       <c r="I94" s="8">
-        <v>50.4</v>
+        <v>30.24</v>
       </c>
       <c r="J94" s="8">
-        <v>5.68</v>
+        <v>3.41</v>
       </c>
       <c r="K94" s="8">
         <v>15</v>
       </c>
       <c r="L94" s="6">
-        <v>1.6722105616438361</v>
+        <v>1.292137842465753</v>
       </c>
       <c r="M94" s="6">
-        <v>0.24649643835616442</v>
+        <v>0.14798465753424656</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4531,10 +4531,10 @@
         <v>36</v>
       </c>
       <c r="D95" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F95" s="8">
         <v>1</v>
@@ -4572,10 +4572,10 @@
         <v>36</v>
       </c>
       <c r="D96" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F96" s="8">
         <v>6</v>
@@ -4584,22 +4584,22 @@
         <v>20</v>
       </c>
       <c r="H96" s="8">
-        <v>30.24</v>
+        <v>50.4</v>
       </c>
       <c r="I96" s="8">
-        <v>30.24</v>
+        <v>50.4</v>
       </c>
       <c r="J96" s="8">
-        <v>3.41</v>
+        <v>5.68</v>
       </c>
       <c r="K96" s="8">
         <v>15</v>
       </c>
       <c r="L96" s="6">
-        <v>1.292137842465753</v>
+        <v>1.4660260616438361</v>
       </c>
       <c r="M96" s="6">
-        <v>0.14798465753424656</v>
+        <v>0.24649643835616442</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4613,10 +4613,10 @@
         <v>36</v>
       </c>
       <c r="D97" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F97" s="8">
         <v>6</v>
@@ -4625,22 +4625,22 @@
         <v>20</v>
       </c>
       <c r="H97" s="8">
-        <v>50.4</v>
+        <v>30.24</v>
       </c>
       <c r="I97" s="8">
-        <v>50.4</v>
+        <v>30.24</v>
       </c>
       <c r="J97" s="8">
-        <v>5.68</v>
+        <v>3.41</v>
       </c>
       <c r="K97" s="8">
         <v>15</v>
       </c>
       <c r="L97" s="6">
-        <v>1.4660260616438361</v>
+        <v>1.292137842465753</v>
       </c>
       <c r="M97" s="6">
-        <v>0.24649643835616442</v>
+        <v>0.14798465753424656</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4654,10 +4654,10 @@
         <v>36</v>
       </c>
       <c r="D98" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F98" s="8">
         <v>1</v>
@@ -4695,10 +4695,10 @@
         <v>36</v>
       </c>
       <c r="D99" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F99" s="8">
         <v>6</v>
@@ -4707,22 +4707,22 @@
         <v>20</v>
       </c>
       <c r="H99" s="8">
-        <v>30.24</v>
+        <v>50.4</v>
       </c>
       <c r="I99" s="8">
-        <v>30.24</v>
+        <v>50.4</v>
       </c>
       <c r="J99" s="8">
-        <v>3.41</v>
+        <v>5.68</v>
       </c>
       <c r="K99" s="8">
         <v>15</v>
       </c>
       <c r="L99" s="6">
-        <v>1.292137842465753</v>
+        <v>1.6722105616438361</v>
       </c>
       <c r="M99" s="6">
-        <v>0.14798465753424656</v>
+        <v>0.24649643835616442</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4736,10 +4736,10 @@
         <v>36</v>
       </c>
       <c r="D100" s="8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F100" s="8">
         <v>1</v>
@@ -4748,22 +4748,22 @@
         <v>15</v>
       </c>
       <c r="H100" s="8">
-        <v>20.16</v>
+        <v>50.4</v>
       </c>
       <c r="I100" s="8">
-        <v>13.54</v>
+        <v>33.85</v>
       </c>
       <c r="J100" s="8">
-        <v>2.27</v>
+        <v>5.68</v>
       </c>
       <c r="K100" s="8">
         <v>15</v>
       </c>
       <c r="L100" s="6">
-        <v>0.17388821917808217</v>
+        <v>0.49695891164383599</v>
       </c>
       <c r="M100" s="6">
-        <v>9.8511780821917791E-2</v>
+        <v>0.24649643835616442</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4777,34 +4777,34 @@
         <v>36</v>
       </c>
       <c r="D101" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F101" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H101" s="8">
-        <v>30.24</v>
+        <v>50.4</v>
       </c>
       <c r="I101" s="8">
-        <v>30.24</v>
+        <v>33.85</v>
       </c>
       <c r="J101" s="8">
-        <v>3.41</v>
+        <v>5.68</v>
       </c>
       <c r="K101" s="8">
         <v>15</v>
       </c>
       <c r="L101" s="6">
-        <v>1.292137842465753</v>
+        <v>0.49695891164383599</v>
       </c>
       <c r="M101" s="6">
-        <v>0.14798465753424656</v>
+        <v>0.24649643835616442</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4818,10 +4818,10 @@
         <v>36</v>
       </c>
       <c r="D102" s="8">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F102" s="8">
         <v>1</v>
@@ -4853,40 +4853,40 @@
         <v>77</v>
       </c>
       <c r="B103" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D103" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F103" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H103" s="8">
-        <v>50.21</v>
+        <v>50.4</v>
       </c>
       <c r="I103" s="8">
-        <v>50.21</v>
+        <v>33.85</v>
       </c>
       <c r="J103" s="8">
-        <v>3.05</v>
+        <v>5.68</v>
       </c>
       <c r="K103" s="8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L103" s="6">
-        <v>4.7128767123287667E-2</v>
+        <v>0.58974193664383601</v>
       </c>
       <c r="M103" s="6">
-        <v>7.4871232876712324E-2</v>
+        <v>0.24649643835616442</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4894,10 +4894,10 @@
         <v>77</v>
       </c>
       <c r="B104" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D104" s="8">
         <v>3</v>
@@ -4906,28 +4906,28 @@
         <v>11</v>
       </c>
       <c r="F104" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H104" s="8">
-        <v>22.2</v>
+        <v>33.85</v>
       </c>
       <c r="I104" s="8">
-        <v>0</v>
+        <v>33.85</v>
       </c>
       <c r="J104" s="8">
-        <v>5.28</v>
+        <v>1.89</v>
       </c>
       <c r="K104" s="8">
-        <v>18.13</v>
+        <v>5</v>
       </c>
       <c r="L104" s="6">
-        <v>0.38739931561643798</v>
+        <v>4.8259726027397261E-2</v>
       </c>
       <c r="M104" s="6">
-        <v>0.46997728438356151</v>
+        <v>2.734027397260274E-2</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4935,40 +4935,40 @@
         <v>77</v>
       </c>
       <c r="B105" s="8">
+        <v>10</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="8">
+        <v>3</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D105" s="8">
+      <c r="F105" s="8">
         <v>4</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="8">
-        <v>1</v>
-      </c>
       <c r="G105" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H105" s="8">
-        <v>72.41</v>
+        <v>16.55</v>
       </c>
       <c r="I105" s="8">
-        <v>50.21</v>
+        <v>0</v>
       </c>
       <c r="J105" s="8">
-        <v>8.33</v>
+        <v>3.78</v>
       </c>
       <c r="K105" s="8">
-        <v>13.32</v>
+        <v>20</v>
       </c>
       <c r="L105" s="6">
-        <v>0.43446380219178099</v>
+        <v>0.54071618321917803</v>
       </c>
       <c r="M105" s="6">
-        <v>0.54474639780821932</v>
+        <v>0.21872219178082192</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4976,16 +4976,16 @@
         <v>77</v>
       </c>
       <c r="B106" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D106" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F106" s="8">
         <v>1</v>
@@ -4994,22 +4994,22 @@
         <v>15</v>
       </c>
       <c r="H106" s="8">
-        <v>72.41</v>
+        <v>50.4</v>
       </c>
       <c r="I106" s="8">
-        <v>50.21</v>
+        <v>33.85</v>
       </c>
       <c r="J106" s="8">
-        <v>8.33</v>
+        <v>5.68</v>
       </c>
       <c r="K106" s="8">
-        <v>13.32</v>
+        <v>15</v>
       </c>
       <c r="L106" s="6">
-        <v>0.37723542719178099</v>
+        <v>0.43510356164383601</v>
       </c>
       <c r="M106" s="6">
-        <v>0.54474639780821932</v>
+        <v>0.24649643835616442</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5017,40 +5017,40 @@
         <v>77</v>
       </c>
       <c r="B107" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D107" s="8">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F107" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H107" s="8">
-        <v>72.41</v>
+        <v>2.7</v>
       </c>
       <c r="I107" s="8">
-        <v>50.21</v>
+        <v>1.72</v>
       </c>
       <c r="J107" s="8">
-        <v>8.33</v>
+        <v>0.5</v>
       </c>
       <c r="K107" s="8">
-        <v>13.32</v>
+        <v>7.84</v>
       </c>
       <c r="L107" s="6">
-        <v>0.37723542719178099</v>
+        <v>3.4322887500000003E-2</v>
       </c>
       <c r="M107" s="6">
-        <v>0.54474639780821932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5058,40 +5058,40 @@
         <v>77</v>
       </c>
       <c r="B108" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D108" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F108" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H108" s="8">
-        <v>72.41</v>
+        <v>2.7</v>
       </c>
       <c r="I108" s="8">
-        <v>72.41</v>
+        <v>1.72</v>
       </c>
       <c r="J108" s="8">
-        <v>8.33</v>
+        <v>0.5</v>
       </c>
       <c r="K108" s="8">
-        <v>13.32</v>
+        <v>7.84</v>
       </c>
       <c r="L108" s="6">
-        <v>1.2585524021917811</v>
+        <v>3.4322887500000003E-2</v>
       </c>
       <c r="M108" s="6">
-        <v>0.54474639780821932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5099,40 +5099,40 @@
         <v>77</v>
       </c>
       <c r="B109" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D109" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F109" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H109" s="8">
-        <v>28.97</v>
+        <v>2.7</v>
       </c>
       <c r="I109" s="8">
-        <v>20.079999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="J109" s="8">
-        <v>3.33</v>
+        <v>0.5</v>
       </c>
       <c r="K109" s="8">
-        <v>13.32</v>
+        <v>7.84</v>
       </c>
       <c r="L109" s="6">
-        <v>0.13707703232876711</v>
+        <v>3.1359999999999999E-2</v>
       </c>
       <c r="M109" s="6">
-        <v>0.21776776767123288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5140,40 +5140,40 @@
         <v>77</v>
       </c>
       <c r="B110" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D110" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F110" s="8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H110" s="8">
-        <v>43.45</v>
+        <v>1.35</v>
       </c>
       <c r="I110" s="8">
-        <v>43.45</v>
+        <v>1.35</v>
       </c>
       <c r="J110" s="8">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="K110" s="8">
-        <v>13.32</v>
+        <v>7.84</v>
       </c>
       <c r="L110" s="6">
-        <v>0.892561869863014</v>
+        <v>4.5308874999999998E-2</v>
       </c>
       <c r="M110" s="6">
-        <v>0.3269786301369863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5181,40 +5181,40 @@
         <v>77</v>
       </c>
       <c r="B111" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D111" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F111" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H111" s="8">
-        <v>72.41</v>
+        <v>1.35</v>
       </c>
       <c r="I111" s="8">
-        <v>72.41</v>
+        <v>0.86</v>
       </c>
       <c r="J111" s="8">
-        <v>8.33</v>
+        <v>0.25</v>
       </c>
       <c r="K111" s="8">
-        <v>13.32</v>
+        <v>7.84</v>
       </c>
       <c r="L111" s="6">
-        <v>1.1440956521917811</v>
+        <v>1.5679999999999999E-2</v>
       </c>
       <c r="M111" s="6">
-        <v>0.54474639780821932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5222,40 +5222,40 @@
         <v>77</v>
       </c>
       <c r="B112" s="8">
+        <v>14</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" s="8">
+        <v>18</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F112" s="8">
         <v>11</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D112" s="8">
-        <v>13</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" s="8">
-        <v>1</v>
-      </c>
       <c r="G112" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H112" s="8">
-        <v>28.97</v>
+        <v>1.72</v>
       </c>
       <c r="I112" s="8">
-        <v>20.079999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="J112" s="8">
-        <v>3.33</v>
+        <v>0.37</v>
       </c>
       <c r="K112" s="8">
-        <v>13.32</v>
+        <v>2</v>
       </c>
       <c r="L112" s="6">
-        <v>0.13707703232876711</v>
+        <v>5.9200000000000008E-3</v>
       </c>
       <c r="M112" s="6">
-        <v>0.21776776767123288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5263,40 +5263,40 @@
         <v>77</v>
       </c>
       <c r="B113" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D113" s="8">
+        <v>18</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" s="8">
+        <v>4</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="8">
-        <v>6</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H113" s="8">
-        <v>43.45</v>
+        <v>0.99</v>
       </c>
       <c r="I113" s="8">
-        <v>43.45</v>
+        <v>0</v>
       </c>
       <c r="J113" s="8">
-        <v>5</v>
+        <v>0.13</v>
       </c>
       <c r="K113" s="8">
-        <v>13.32</v>
+        <v>25</v>
       </c>
       <c r="L113" s="6">
-        <v>0.892561869863014</v>
+        <v>3.7851549999999998E-2</v>
       </c>
       <c r="M113" s="6">
-        <v>0.3269786301369863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5304,40 +5304,40 @@
         <v>77</v>
       </c>
       <c r="B114" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D114" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F114" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H114" s="8">
-        <v>28.97</v>
+        <v>2.7</v>
       </c>
       <c r="I114" s="8">
-        <v>20.079999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="J114" s="8">
-        <v>3.33</v>
+        <v>0.5</v>
       </c>
       <c r="K114" s="8">
-        <v>13.32</v>
+        <v>7.84</v>
       </c>
       <c r="L114" s="6">
-        <v>0.13707703232876711</v>
+        <v>8.76548625E-2</v>
       </c>
       <c r="M114" s="6">
-        <v>0.21776776767123288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5345,40 +5345,40 @@
         <v>77</v>
       </c>
       <c r="B115" s="8">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D115" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F115" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H115" s="8">
-        <v>43.45</v>
+        <v>3.96</v>
       </c>
       <c r="I115" s="8">
-        <v>43.45</v>
+        <v>3.96</v>
       </c>
       <c r="J115" s="8">
-        <v>5</v>
+        <v>0.51</v>
       </c>
       <c r="K115" s="8">
-        <v>13.32</v>
+        <v>7.84</v>
       </c>
       <c r="L115" s="6">
-        <v>0.892561869863014</v>
+        <v>0</v>
       </c>
       <c r="M115" s="6">
-        <v>0.3269786301369863</v>
+        <v>3.19872E-2</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5386,16 +5386,16 @@
         <v>77</v>
       </c>
       <c r="B116" s="8">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D116" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F116" s="8">
         <v>10</v>
@@ -5404,19 +5404,19 @@
         <v>15</v>
       </c>
       <c r="H116" s="8">
-        <v>11.04</v>
+        <v>3.96</v>
       </c>
       <c r="I116" s="8">
-        <v>8.1</v>
+        <v>2.74</v>
       </c>
       <c r="J116" s="8">
-        <v>1.89</v>
+        <v>0.51</v>
       </c>
       <c r="K116" s="8">
-        <v>7.66</v>
+        <v>7.84</v>
       </c>
       <c r="L116" s="6">
-        <v>0.11581919999999997</v>
+        <v>3.19872E-2</v>
       </c>
       <c r="M116" s="6">
         <v>0</v>
@@ -5427,37 +5427,37 @@
         <v>77</v>
       </c>
       <c r="B117" s="8">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D117" s="8">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F117" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H117" s="8">
-        <v>5.44</v>
+        <v>1.31</v>
       </c>
       <c r="I117" s="8">
-        <v>5.44</v>
+        <v>1.31</v>
       </c>
       <c r="J117" s="8">
-        <v>0.93</v>
+        <v>0.17</v>
       </c>
       <c r="K117" s="8">
-        <v>7.66</v>
+        <v>7.84</v>
       </c>
       <c r="L117" s="6">
-        <v>0.3414276</v>
+        <v>1.0662400000000001E-2</v>
       </c>
       <c r="M117" s="6">
         <v>0</v>
@@ -5468,16 +5468,16 @@
         <v>77</v>
       </c>
       <c r="B118" s="8">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D118" s="8">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F118" s="8">
         <v>10</v>
@@ -5486,19 +5486,19 @@
         <v>15</v>
       </c>
       <c r="H118" s="8">
-        <v>11.04</v>
+        <v>2.65</v>
       </c>
       <c r="I118" s="8">
-        <v>8.1</v>
+        <v>1.84</v>
       </c>
       <c r="J118" s="8">
-        <v>1.89</v>
+        <v>0.34</v>
       </c>
       <c r="K118" s="8">
-        <v>7.66</v>
+        <v>7.84</v>
       </c>
       <c r="L118" s="6">
-        <v>0.11581919999999997</v>
+        <v>2.1324800000000005E-2</v>
       </c>
       <c r="M118" s="6">
         <v>0</v>
@@ -5509,37 +5509,37 @@
         <v>77</v>
       </c>
       <c r="B119" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D119" s="8">
+        <v>46</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F119" s="8">
         <v>10</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F119" s="8">
-        <v>16</v>
-      </c>
       <c r="G119" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H119" s="8">
-        <v>5.44</v>
+        <v>0.4</v>
       </c>
       <c r="I119" s="8">
-        <v>5.44</v>
+        <v>0.22</v>
       </c>
       <c r="J119" s="8">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="K119" s="8">
-        <v>7.66</v>
+        <v>7.31</v>
       </c>
       <c r="L119" s="6">
-        <v>0.3414276</v>
+        <v>5.2632E-3</v>
       </c>
       <c r="M119" s="6">
         <v>0</v>
@@ -5550,37 +5550,37 @@
         <v>77</v>
       </c>
       <c r="B120" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D120" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E120" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F120" s="8">
+        <v>14</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F120" s="8">
-        <v>16</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="H120" s="8">
-        <v>16.48</v>
+        <v>0.4</v>
       </c>
       <c r="I120" s="8">
-        <v>16.48</v>
+        <v>0.4</v>
       </c>
       <c r="J120" s="8">
-        <v>2.82</v>
+        <v>0.09</v>
       </c>
       <c r="K120" s="8">
-        <v>7.66</v>
+        <v>7.31</v>
       </c>
       <c r="L120" s="6">
-        <v>0.9046428125</v>
+        <v>1.7114750000000001E-2</v>
       </c>
       <c r="M120" s="6">
         <v>0</v>
@@ -5591,37 +5591,37 @@
         <v>77</v>
       </c>
       <c r="B121" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D121" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F121" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H121" s="8">
-        <v>7.95</v>
+        <v>0.4</v>
       </c>
       <c r="I121" s="8">
-        <v>7.95</v>
+        <v>0.22</v>
       </c>
       <c r="J121" s="8">
-        <v>1.32</v>
+        <v>0.09</v>
       </c>
       <c r="K121" s="8">
-        <v>7.66</v>
+        <v>7.31</v>
       </c>
       <c r="L121" s="6">
-        <v>8.0889600000000006E-2</v>
+        <v>5.2632E-3</v>
       </c>
       <c r="M121" s="6">
         <v>0</v>
@@ -5632,37 +5632,37 @@
         <v>77</v>
       </c>
       <c r="B122" s="8">
+        <v>13</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="8">
+        <v>18</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="8">
+        <v>11</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" s="8">
-        <v>60</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F122" s="8">
-        <v>10</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H122" s="8">
-        <v>16.48</v>
+        <v>0.22</v>
       </c>
       <c r="I122" s="8">
-        <v>12.09</v>
+        <v>0.22</v>
       </c>
       <c r="J122" s="8">
-        <v>2.82</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K122" s="8">
-        <v>7.66</v>
+        <v>2</v>
       </c>
       <c r="L122" s="6">
-        <v>0.17280960000000001</v>
+        <v>1.1199999999999999E-3</v>
       </c>
       <c r="M122" s="6">
         <v>0</v>
@@ -5673,16 +5673,16 @@
         <v>77</v>
       </c>
       <c r="B123" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D123" s="8">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F123" s="8">
         <v>4</v>
@@ -5691,19 +5691,19 @@
         <v>13</v>
       </c>
       <c r="H123" s="8">
-        <v>4.3899999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="I123" s="8">
         <v>0</v>
       </c>
       <c r="J123" s="8">
-        <v>0.56999999999999995</v>
+        <v>0.02</v>
       </c>
       <c r="K123" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L123" s="6">
-        <v>0.13679999999999998</v>
+        <v>6.9628874999999998E-3</v>
       </c>
       <c r="M123" s="6">
         <v>0</v>
@@ -5714,40 +5714,40 @@
         <v>77</v>
       </c>
       <c r="B124" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D124" s="8">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F124" s="8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H124" s="8">
-        <v>12.09</v>
+        <v>0.51</v>
       </c>
       <c r="I124" s="8">
-        <v>12.09</v>
+        <v>0.51</v>
       </c>
       <c r="J124" s="8">
-        <v>2.25</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K124" s="8">
-        <v>2</v>
+        <v>7.31</v>
       </c>
       <c r="L124" s="6">
-        <v>9.8220637499999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M124" s="6">
-        <v>0</v>
+        <v>4.0936000000000011E-3</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5755,16 +5755,16 @@
         <v>77</v>
       </c>
       <c r="B125" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D125" s="8">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F125" s="8">
         <v>10</v>
@@ -5773,19 +5773,19 @@
         <v>15</v>
       </c>
       <c r="H125" s="8">
-        <v>16.48</v>
+        <v>0.51</v>
       </c>
       <c r="I125" s="8">
-        <v>12.09</v>
+        <v>0.35</v>
       </c>
       <c r="J125" s="8">
-        <v>2.82</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K125" s="8">
-        <v>7.66</v>
+        <v>7.31</v>
       </c>
       <c r="L125" s="6">
-        <v>0.214290025</v>
+        <v>4.0936000000000002E-3</v>
       </c>
       <c r="M125" s="6">
         <v>0</v>
@@ -5796,37 +5796,37 @@
         <v>77</v>
       </c>
       <c r="B126" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D126" s="8">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F126" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H126" s="8">
-        <v>7.06</v>
+        <v>0.17</v>
       </c>
       <c r="I126" s="8">
-        <v>5.18</v>
+        <v>0.17</v>
       </c>
       <c r="J126" s="8">
-        <v>1.21</v>
+        <v>0.02</v>
       </c>
       <c r="K126" s="8">
-        <v>7.66</v>
+        <v>7.31</v>
       </c>
       <c r="L126" s="6">
-        <v>7.4148800000000001E-2</v>
+        <v>1.1696E-3</v>
       </c>
       <c r="M126" s="6">
         <v>0</v>
@@ -5837,16 +5837,16 @@
         <v>77</v>
       </c>
       <c r="B127" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D127" s="8">
+        <v>79</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F127" s="8">
         <v>10</v>
@@ -5855,19 +5855,19 @@
         <v>15</v>
       </c>
       <c r="H127" s="8">
-        <v>7.06</v>
+        <v>0.34</v>
       </c>
       <c r="I127" s="8">
-        <v>5.18</v>
+        <v>0.24</v>
       </c>
       <c r="J127" s="8">
-        <v>1.21</v>
+        <v>0.05</v>
       </c>
       <c r="K127" s="8">
-        <v>7.66</v>
+        <v>7.31</v>
       </c>
       <c r="L127" s="6">
-        <v>7.4148800000000001E-2</v>
+        <v>2.9239999999999999E-3</v>
       </c>
       <c r="M127" s="6">
         <v>0</v>
@@ -5878,37 +5878,37 @@
         <v>77</v>
       </c>
       <c r="B128" s="8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D128" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F128" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H128" s="8">
-        <v>0.18</v>
+        <v>9.11</v>
       </c>
       <c r="I128" s="8">
-        <v>0</v>
+        <v>9.11</v>
       </c>
       <c r="J128" s="8">
-        <v>0.02</v>
+        <v>0.97</v>
       </c>
       <c r="K128" s="8">
-        <v>25</v>
+        <v>11.8</v>
       </c>
       <c r="L128" s="6">
-        <v>6.9628874999999998E-3</v>
+        <v>0.44711450000000003</v>
       </c>
       <c r="M128" s="6">
         <v>0</v>
@@ -5919,37 +5919,37 @@
         <v>77</v>
       </c>
       <c r="B129" s="8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D129" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F129" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H129" s="8">
-        <v>0.22</v>
+        <v>9.11</v>
       </c>
       <c r="I129" s="8">
-        <v>0.22</v>
+        <v>9.11</v>
       </c>
       <c r="J129" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.97</v>
       </c>
       <c r="K129" s="8">
-        <v>2</v>
+        <v>11.8</v>
       </c>
       <c r="L129" s="6">
-        <v>1.1199999999999999E-3</v>
+        <v>0.44711450000000003</v>
       </c>
       <c r="M129" s="6">
         <v>0</v>
@@ -5960,37 +5960,37 @@
         <v>77</v>
       </c>
       <c r="B130" s="8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D130" s="8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F130" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H130" s="8">
-        <v>0.4</v>
+        <v>12.56</v>
       </c>
       <c r="I130" s="8">
-        <v>0.22</v>
+        <v>12.56</v>
       </c>
       <c r="J130" s="8">
-        <v>0.09</v>
+        <v>1.37</v>
       </c>
       <c r="K130" s="8">
-        <v>7.31</v>
+        <v>11.8</v>
       </c>
       <c r="L130" s="6">
-        <v>5.2632E-3</v>
+        <v>0.57376112499999998</v>
       </c>
       <c r="M130" s="6">
         <v>0</v>
@@ -6001,37 +6001,37 @@
         <v>77</v>
       </c>
       <c r="B131" s="8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D131" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F131" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H131" s="8">
-        <v>0.4</v>
+        <v>12.56</v>
       </c>
       <c r="I131" s="8">
-        <v>0.4</v>
+        <v>12.56</v>
       </c>
       <c r="J131" s="8">
-        <v>0.09</v>
+        <v>1.37</v>
       </c>
       <c r="K131" s="8">
-        <v>7.31</v>
+        <v>11.8</v>
       </c>
       <c r="L131" s="6">
-        <v>1.7114750000000001E-2</v>
+        <v>0.57376112499999998</v>
       </c>
       <c r="M131" s="6">
         <v>0</v>
@@ -6042,37 +6042,37 @@
         <v>77</v>
       </c>
       <c r="B132" s="8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" s="8">
         <v>49</v>
       </c>
-      <c r="D132" s="8">
-        <v>46</v>
-      </c>
       <c r="E132" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F132" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H132" s="8">
-        <v>0.4</v>
+        <v>18.39</v>
       </c>
       <c r="I132" s="8">
-        <v>0.22</v>
+        <v>12.1</v>
       </c>
       <c r="J132" s="8">
-        <v>0.09</v>
+        <v>2.16</v>
       </c>
       <c r="K132" s="8">
-        <v>7.31</v>
+        <v>13</v>
       </c>
       <c r="L132" s="6">
-        <v>5.2632E-3</v>
+        <v>0.28389775</v>
       </c>
       <c r="M132" s="6">
         <v>0</v>
@@ -6083,37 +6083,37 @@
         <v>77</v>
       </c>
       <c r="B133" s="8">
+        <v>6</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" s="8">
         <v>14</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D133" s="8">
-        <v>15</v>
-      </c>
       <c r="E133" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F133" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H133" s="8">
-        <v>2.7</v>
+        <v>11.04</v>
       </c>
       <c r="I133" s="8">
-        <v>2.7</v>
+        <v>11.04</v>
       </c>
       <c r="J133" s="8">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="K133" s="8">
-        <v>7.84</v>
+        <v>13</v>
       </c>
       <c r="L133" s="6">
-        <v>8.76548625E-2</v>
+        <v>0.81666412499999996</v>
       </c>
       <c r="M133" s="6">
         <v>0</v>
@@ -6124,37 +6124,37 @@
         <v>77</v>
       </c>
       <c r="B134" s="8">
+        <v>6</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="8">
         <v>14</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D134" s="8">
-        <v>18</v>
-      </c>
       <c r="E134" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F134" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="8">
+        <v>7.36</v>
+      </c>
+      <c r="I134" s="8">
+        <v>4.84</v>
+      </c>
+      <c r="J134" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="K134" s="8">
         <v>13</v>
       </c>
-      <c r="H134" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="I134" s="8">
-        <v>0</v>
-      </c>
-      <c r="J134" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="K134" s="8">
-        <v>25</v>
-      </c>
       <c r="L134" s="6">
-        <v>3.7851549999999998E-2</v>
+        <v>8.9439999999999992E-2</v>
       </c>
       <c r="M134" s="6">
         <v>0</v>
@@ -6165,37 +6165,37 @@
         <v>77</v>
       </c>
       <c r="B135" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D135" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F135" s="8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H135" s="8">
-        <v>1.72</v>
+        <v>11.04</v>
       </c>
       <c r="I135" s="8">
-        <v>1.72</v>
+        <v>11.04</v>
       </c>
       <c r="J135" s="8">
-        <v>0.37</v>
+        <v>1.3</v>
       </c>
       <c r="K135" s="8">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L135" s="6">
-        <v>5.9200000000000008E-3</v>
+        <v>0.81666412499999996</v>
       </c>
       <c r="M135" s="6">
         <v>0</v>
@@ -6206,37 +6206,37 @@
         <v>77</v>
       </c>
       <c r="B136" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D136" s="8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F136" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H136" s="8">
-        <v>1.35</v>
+        <v>7.36</v>
       </c>
       <c r="I136" s="8">
+        <v>4.84</v>
+      </c>
+      <c r="J136" s="8">
         <v>0.86</v>
       </c>
-      <c r="J136" s="8">
-        <v>0.25</v>
-      </c>
       <c r="K136" s="8">
-        <v>7.84</v>
+        <v>13</v>
       </c>
       <c r="L136" s="6">
-        <v>1.5679999999999999E-2</v>
+        <v>8.9439999999999992E-2</v>
       </c>
       <c r="M136" s="6">
         <v>0</v>
@@ -6247,37 +6247,37 @@
         <v>77</v>
       </c>
       <c r="B137" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D137" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F137" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H137" s="8">
-        <v>1.35</v>
+        <v>18.39</v>
       </c>
       <c r="I137" s="8">
-        <v>1.35</v>
+        <v>18.39</v>
       </c>
       <c r="J137" s="8">
-        <v>0.25</v>
+        <v>2.16</v>
       </c>
       <c r="K137" s="8">
-        <v>7.84</v>
+        <v>13</v>
       </c>
       <c r="L137" s="6">
-        <v>4.5308874999999998E-2</v>
+        <v>0.93573300000000004</v>
       </c>
       <c r="M137" s="6">
         <v>0</v>
@@ -6288,37 +6288,37 @@
         <v>77</v>
       </c>
       <c r="B138" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D138" s="8">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F138" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H138" s="8">
-        <v>2.7</v>
+        <v>11.04</v>
       </c>
       <c r="I138" s="8">
-        <v>1.72</v>
+        <v>11.04</v>
       </c>
       <c r="J138" s="8">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="K138" s="8">
-        <v>7.84</v>
+        <v>13</v>
       </c>
       <c r="L138" s="6">
-        <v>3.1359999999999999E-2</v>
+        <v>0.81666412499999996</v>
       </c>
       <c r="M138" s="6">
         <v>0</v>
@@ -6329,37 +6329,37 @@
         <v>77</v>
       </c>
       <c r="B139" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D139" s="8">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F139" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H139" s="8">
-        <v>2.7</v>
+        <v>7.36</v>
       </c>
       <c r="I139" s="8">
-        <v>1.72</v>
+        <v>4.84</v>
       </c>
       <c r="J139" s="8">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="K139" s="8">
-        <v>7.84</v>
+        <v>13</v>
       </c>
       <c r="L139" s="6">
-        <v>3.4322887500000003E-2</v>
+        <v>8.9439999999999992E-2</v>
       </c>
       <c r="M139" s="6">
         <v>0</v>
@@ -6370,37 +6370,37 @@
         <v>77</v>
       </c>
       <c r="B140" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D140" s="8">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F140" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H140" s="8">
-        <v>2.7</v>
+        <v>18.39</v>
       </c>
       <c r="I140" s="8">
-        <v>1.72</v>
+        <v>18.39</v>
       </c>
       <c r="J140" s="8">
-        <v>0.5</v>
+        <v>2.16</v>
       </c>
       <c r="K140" s="8">
-        <v>7.84</v>
+        <v>13</v>
       </c>
       <c r="L140" s="6">
-        <v>3.4322887500000003E-2</v>
+        <v>1.0838773749999999</v>
       </c>
       <c r="M140" s="6">
         <v>0</v>
@@ -6411,40 +6411,40 @@
         <v>77</v>
       </c>
       <c r="B141" s="8">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D141" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F141" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H141" s="8">
-        <v>30.1</v>
+        <v>18.39</v>
       </c>
       <c r="I141" s="8">
-        <v>30.1</v>
+        <v>12.1</v>
       </c>
       <c r="J141" s="8">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="K141" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L141" s="6">
-        <v>2.8740821917808222E-2</v>
+        <v>0.28389775</v>
       </c>
       <c r="M141" s="6">
-        <v>4.5659178082191783E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6452,40 +6452,40 @@
         <v>77</v>
       </c>
       <c r="B142" s="8">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D142" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F142" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="8">
+        <v>18.39</v>
+      </c>
+      <c r="I142" s="8">
+        <v>12.1</v>
+      </c>
+      <c r="J142" s="8">
+        <v>2.16</v>
+      </c>
+      <c r="K142" s="8">
         <v>13</v>
       </c>
-      <c r="H142" s="8">
-        <v>13.54</v>
-      </c>
-      <c r="I142" s="8">
+      <c r="L142" s="6">
+        <v>0.28389775</v>
+      </c>
+      <c r="M142" s="6">
         <v>0</v>
-      </c>
-      <c r="J142" s="8">
-        <v>3.22</v>
-      </c>
-      <c r="K142" s="8">
-        <v>18.13</v>
-      </c>
-      <c r="L142" s="6">
-        <v>0.24908791520547899</v>
-      </c>
-      <c r="M142" s="6">
-        <v>0.28661493479452055</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6493,16 +6493,16 @@
         <v>77</v>
       </c>
       <c r="B143" s="8">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D143" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F143" s="8">
         <v>1</v>
@@ -6511,22 +6511,22 @@
         <v>15</v>
       </c>
       <c r="H143" s="8">
-        <v>43.64</v>
+        <v>18.39</v>
       </c>
       <c r="I143" s="8">
-        <v>30.1</v>
+        <v>12.1</v>
       </c>
       <c r="J143" s="8">
-        <v>5.08</v>
+        <v>2.16</v>
       </c>
       <c r="K143" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L143" s="6">
-        <v>0.27778856178082201</v>
+        <v>0.28389775</v>
       </c>
       <c r="M143" s="6">
-        <v>0.33221028821917808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6534,16 +6534,16 @@
         <v>77</v>
       </c>
       <c r="B144" s="8">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D144" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F144" s="8">
         <v>1</v>
@@ -6552,22 +6552,22 @@
         <v>15</v>
       </c>
       <c r="H144" s="8">
-        <v>43.64</v>
+        <v>18.39</v>
       </c>
       <c r="I144" s="8">
-        <v>30.1</v>
+        <v>12.1</v>
       </c>
       <c r="J144" s="8">
-        <v>5.08</v>
+        <v>2.16</v>
       </c>
       <c r="K144" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L144" s="6">
-        <v>0.232005861780822</v>
+        <v>0.40241325</v>
       </c>
       <c r="M144" s="6">
-        <v>0.33221028821917808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6575,40 +6575,40 @@
         <v>77</v>
       </c>
       <c r="B145" s="8">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D145" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F145" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H145" s="8">
-        <v>43.64</v>
+        <v>12.1</v>
       </c>
       <c r="I145" s="8">
-        <v>30.1</v>
+        <v>12.1</v>
       </c>
       <c r="J145" s="8">
-        <v>5.08</v>
+        <v>0.72</v>
       </c>
       <c r="K145" s="8">
-        <v>13.32</v>
+        <v>5</v>
       </c>
       <c r="L145" s="6">
-        <v>0.232005861780822</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="M145" s="6">
-        <v>0.33221028821917808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6616,40 +6616,40 @@
         <v>77</v>
       </c>
       <c r="B146" s="8">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D146" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F146" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H146" s="8">
-        <v>43.64</v>
+        <v>6.29</v>
       </c>
       <c r="I146" s="8">
-        <v>43.64</v>
+        <v>0</v>
       </c>
       <c r="J146" s="8">
-        <v>5.08</v>
+        <v>1.44</v>
       </c>
       <c r="K146" s="8">
-        <v>13.32</v>
+        <v>17</v>
       </c>
       <c r="L146" s="6">
-        <v>0.89585501178082205</v>
+        <v>0.37361325000000001</v>
       </c>
       <c r="M146" s="6">
-        <v>0.33221028821917808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6657,16 +6657,16 @@
         <v>77</v>
       </c>
       <c r="B147" s="8">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D147" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F147" s="8">
         <v>1</v>
@@ -6675,22 +6675,22 @@
         <v>15</v>
       </c>
       <c r="H147" s="8">
-        <v>17.46</v>
+        <v>18.39</v>
       </c>
       <c r="I147" s="8">
-        <v>12.04</v>
+        <v>12.1</v>
       </c>
       <c r="J147" s="8">
-        <v>2.0299999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="K147" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L147" s="6">
-        <v>8.356347616438356E-2</v>
+        <v>0.22464000000000001</v>
       </c>
       <c r="M147" s="6">
-        <v>0.13275332383561642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6698,40 +6698,40 @@
         <v>77</v>
       </c>
       <c r="B148" s="8">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D148" s="8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F148" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H148" s="8">
-        <v>26.18</v>
+        <v>23.5</v>
       </c>
       <c r="I148" s="8">
-        <v>26.18</v>
+        <v>15.56</v>
       </c>
       <c r="J148" s="8">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="K148" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L148" s="6">
-        <v>0.64060641061643797</v>
+        <v>0.37176662500000002</v>
       </c>
       <c r="M148" s="6">
-        <v>0.19945696438356164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6739,16 +6739,16 @@
         <v>77</v>
       </c>
       <c r="B149" s="8">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D149" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F149" s="8">
         <v>6</v>
@@ -6757,22 +6757,22 @@
         <v>20</v>
       </c>
       <c r="H149" s="8">
-        <v>43.64</v>
+        <v>14.1</v>
       </c>
       <c r="I149" s="8">
-        <v>43.64</v>
+        <v>14.1</v>
       </c>
       <c r="J149" s="8">
-        <v>5.08</v>
+        <v>1.63</v>
       </c>
       <c r="K149" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L149" s="6">
-        <v>0.81001244928082194</v>
+        <v>1.0880151250000001</v>
       </c>
       <c r="M149" s="6">
-        <v>0.33221028821917808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6780,16 +6780,16 @@
         <v>77</v>
       </c>
       <c r="B150" s="8">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D150" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F150" s="8">
         <v>1</v>
@@ -6798,22 +6798,22 @@
         <v>15</v>
       </c>
       <c r="H150" s="8">
-        <v>17.46</v>
+        <v>9.4</v>
       </c>
       <c r="I150" s="8">
-        <v>12.04</v>
+        <v>6.23</v>
       </c>
       <c r="J150" s="8">
-        <v>2.0299999999999998</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K150" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L150" s="6">
-        <v>8.356347616438356E-2</v>
+        <v>0.11335999999999999</v>
       </c>
       <c r="M150" s="6">
-        <v>0.13275332383561642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6821,10 +6821,10 @@
         <v>77</v>
       </c>
       <c r="B151" s="8">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D151" s="8">
         <v>13</v>
@@ -6839,22 +6839,22 @@
         <v>20</v>
       </c>
       <c r="H151" s="8">
-        <v>26.18</v>
+        <v>14.1</v>
       </c>
       <c r="I151" s="8">
-        <v>26.18</v>
+        <v>14.1</v>
       </c>
       <c r="J151" s="8">
-        <v>3.05</v>
+        <v>1.63</v>
       </c>
       <c r="K151" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L151" s="6">
-        <v>0.64060641061643797</v>
+        <v>1.0880151250000001</v>
       </c>
       <c r="M151" s="6">
-        <v>0.19945696438356164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6862,16 +6862,16 @@
         <v>77</v>
       </c>
       <c r="B152" s="8">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D152" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F152" s="8">
         <v>1</v>
@@ -6880,22 +6880,22 @@
         <v>15</v>
       </c>
       <c r="H152" s="8">
-        <v>17.46</v>
+        <v>9.4</v>
       </c>
       <c r="I152" s="8">
-        <v>12.04</v>
+        <v>6.23</v>
       </c>
       <c r="J152" s="8">
-        <v>2.0299999999999998</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K152" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L152" s="6">
-        <v>8.356347616438356E-2</v>
+        <v>0.11335999999999999</v>
       </c>
       <c r="M152" s="6">
-        <v>0.13275332383561642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6903,16 +6903,16 @@
         <v>77</v>
       </c>
       <c r="B153" s="8">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D153" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F153" s="8">
         <v>6</v>
@@ -6921,22 +6921,22 @@
         <v>20</v>
       </c>
       <c r="H153" s="8">
-        <v>26.18</v>
+        <v>23.5</v>
       </c>
       <c r="I153" s="8">
-        <v>26.18</v>
+        <v>23.5</v>
       </c>
       <c r="J153" s="8">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="K153" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L153" s="6">
-        <v>0.64060641061643797</v>
+        <v>1.231004</v>
       </c>
       <c r="M153" s="6">
-        <v>0.19945696438356164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6944,40 +6944,40 @@
         <v>77</v>
       </c>
       <c r="B154" s="8">
+        <v>5</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D154" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F154" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H154" s="8">
-        <v>44.04</v>
+        <v>14.1</v>
       </c>
       <c r="I154" s="8">
-        <v>44.04</v>
+        <v>14.1</v>
       </c>
       <c r="J154" s="8">
-        <v>2.69</v>
+        <v>1.63</v>
       </c>
       <c r="K154" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L154" s="6">
-        <v>4.1566027397260272E-2</v>
+        <v>1.0880151250000001</v>
       </c>
       <c r="M154" s="6">
-        <v>6.6033972602739729E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -6985,40 +6985,40 @@
         <v>77</v>
       </c>
       <c r="B155" s="8">
+        <v>5</v>
+      </c>
+      <c r="C155" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D155" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F155" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G155" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="I155" s="8">
+        <v>6.23</v>
+      </c>
+      <c r="J155" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K155" s="8">
         <v>13</v>
       </c>
-      <c r="H155" s="8">
-        <v>19.59</v>
-      </c>
-      <c r="I155" s="8">
+      <c r="L155" s="6">
+        <v>0.11335999999999999</v>
+      </c>
+      <c r="M155" s="6">
         <v>0</v>
-      </c>
-      <c r="J155" s="8">
-        <v>4.66</v>
-      </c>
-      <c r="K155" s="8">
-        <v>18.13</v>
-      </c>
-      <c r="L155" s="6">
-        <v>0.35266124219178102</v>
-      </c>
-      <c r="M155" s="6">
-        <v>0.41479055780821922</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7026,40 +7026,40 @@
         <v>77</v>
       </c>
       <c r="B156" s="8">
+        <v>5</v>
+      </c>
+      <c r="C156" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D156" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F156" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H156" s="8">
-        <v>63.62</v>
+        <v>23.5</v>
       </c>
       <c r="I156" s="8">
-        <v>44.04</v>
+        <v>23.5</v>
       </c>
       <c r="J156" s="8">
-        <v>7.35</v>
+        <v>2.72</v>
       </c>
       <c r="K156" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L156" s="6">
-        <v>0.39412281369863</v>
+        <v>1.40877725</v>
       </c>
       <c r="M156" s="6">
-        <v>0.48065858630136987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7067,16 +7067,16 @@
         <v>77</v>
       </c>
       <c r="B157" s="8">
+        <v>5</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D157" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F157" s="8">
         <v>1</v>
@@ -7085,22 +7085,22 @@
         <v>15</v>
       </c>
       <c r="H157" s="8">
-        <v>63.62</v>
+        <v>23.5</v>
       </c>
       <c r="I157" s="8">
-        <v>44.04</v>
+        <v>15.56</v>
       </c>
       <c r="J157" s="8">
-        <v>7.35</v>
+        <v>2.72</v>
       </c>
       <c r="K157" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L157" s="6">
-        <v>0.33689443869863001</v>
+        <v>0.37176662500000002</v>
       </c>
       <c r="M157" s="6">
-        <v>0.48065858630136987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7108,16 +7108,16 @@
         <v>77</v>
       </c>
       <c r="B158" s="8">
+        <v>5</v>
+      </c>
+      <c r="C158" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D158" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F158" s="8">
         <v>1</v>
@@ -7126,22 +7126,22 @@
         <v>15</v>
       </c>
       <c r="H158" s="8">
-        <v>63.62</v>
+        <v>23.5</v>
       </c>
       <c r="I158" s="8">
-        <v>44.04</v>
+        <v>15.56</v>
       </c>
       <c r="J158" s="8">
-        <v>7.35</v>
+        <v>2.72</v>
       </c>
       <c r="K158" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L158" s="6">
-        <v>0.33689443869863001</v>
+        <v>0.37176662500000002</v>
       </c>
       <c r="M158" s="6">
-        <v>0.48065858630136987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7149,40 +7149,40 @@
         <v>77</v>
       </c>
       <c r="B159" s="8">
+        <v>5</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D159" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F159" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H159" s="8">
-        <v>63.62</v>
+        <v>23.5</v>
       </c>
       <c r="I159" s="8">
-        <v>63.62</v>
+        <v>15.56</v>
       </c>
       <c r="J159" s="8">
-        <v>7.35</v>
+        <v>2.72</v>
       </c>
       <c r="K159" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L159" s="6">
-        <v>1.21821141369863</v>
+        <v>0.37176662500000002</v>
       </c>
       <c r="M159" s="6">
-        <v>0.48065858630136987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7190,16 +7190,16 @@
         <v>77</v>
       </c>
       <c r="B160" s="8">
+        <v>5</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D160" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F160" s="8">
         <v>1</v>
@@ -7208,22 +7208,22 @@
         <v>15</v>
       </c>
       <c r="H160" s="8">
-        <v>25.45</v>
+        <v>23.5</v>
       </c>
       <c r="I160" s="8">
-        <v>17.61</v>
+        <v>15.56</v>
       </c>
       <c r="J160" s="8">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="K160" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L160" s="6">
-        <v>0.12102296547945204</v>
+        <v>0.50509656250000001</v>
       </c>
       <c r="M160" s="6">
-        <v>0.19226343452054795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7231,40 +7231,40 @@
         <v>77</v>
       </c>
       <c r="B161" s="8">
+        <v>5</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D161" s="8">
+        <v>3</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F161" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H161" s="8">
-        <v>38.17</v>
+        <v>15.56</v>
       </c>
       <c r="I161" s="8">
-        <v>38.17</v>
+        <v>15.56</v>
       </c>
       <c r="J161" s="8">
-        <v>4.41</v>
+        <v>0.91</v>
       </c>
       <c r="K161" s="8">
-        <v>13.32</v>
+        <v>5</v>
       </c>
       <c r="L161" s="6">
-        <v>0.86827494821917806</v>
+        <v>3.6399999999999995E-2</v>
       </c>
       <c r="M161" s="6">
-        <v>0.28839515178082192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7272,40 +7272,40 @@
         <v>77</v>
       </c>
       <c r="B162" s="8">
+        <v>5</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D162" s="8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F162" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H162" s="8">
-        <v>63.62</v>
+        <v>7.93</v>
       </c>
       <c r="I162" s="8">
-        <v>63.62</v>
+        <v>0</v>
       </c>
       <c r="J162" s="8">
-        <v>7.35</v>
+        <v>1.82</v>
       </c>
       <c r="K162" s="8">
-        <v>13.32</v>
+        <v>17</v>
       </c>
       <c r="L162" s="6">
-        <v>1.10375466369863</v>
+        <v>0.46973656250000001</v>
       </c>
       <c r="M162" s="6">
-        <v>0.48065858630136987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7313,16 +7313,16 @@
         <v>77</v>
       </c>
       <c r="B163" s="8">
+        <v>5</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D163" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F163" s="8">
         <v>1</v>
@@ -7331,22 +7331,22 @@
         <v>15</v>
       </c>
       <c r="H163" s="8">
-        <v>25.45</v>
+        <v>23.5</v>
       </c>
       <c r="I163" s="8">
-        <v>17.61</v>
+        <v>15.56</v>
       </c>
       <c r="J163" s="8">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="K163" s="8">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="L163" s="6">
-        <v>0.12102296547945204</v>
+        <v>0.28288000000000002</v>
       </c>
       <c r="M163" s="6">
-        <v>0.19226343452054795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7354,40 +7354,40 @@
         <v>77</v>
       </c>
       <c r="B164" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D164" s="8">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F164" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H164" s="8">
-        <v>38.17</v>
+        <v>7.06</v>
       </c>
       <c r="I164" s="8">
-        <v>38.17</v>
+        <v>5.18</v>
       </c>
       <c r="J164" s="8">
-        <v>4.41</v>
+        <v>1.21</v>
       </c>
       <c r="K164" s="8">
-        <v>13.32</v>
+        <v>7.66</v>
       </c>
       <c r="L164" s="6">
-        <v>0.86827494821917806</v>
+        <v>7.4148800000000001E-2</v>
       </c>
       <c r="M164" s="6">
-        <v>0.28839515178082192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7395,40 +7395,40 @@
         <v>77</v>
       </c>
       <c r="B165" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D165" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F165" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H165" s="8">
-        <v>25.45</v>
+        <v>7.06</v>
       </c>
       <c r="I165" s="8">
-        <v>17.61</v>
+        <v>5.18</v>
       </c>
       <c r="J165" s="8">
-        <v>2.94</v>
+        <v>1.21</v>
       </c>
       <c r="K165" s="8">
-        <v>13.32</v>
+        <v>7.66</v>
       </c>
       <c r="L165" s="6">
-        <v>0.12102296547945204</v>
+        <v>7.4148800000000001E-2</v>
       </c>
       <c r="M165" s="6">
-        <v>0.19226343452054795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7436,40 +7436,40 @@
         <v>77</v>
       </c>
       <c r="B166" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D166" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F166" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H166" s="8">
-        <v>38.17</v>
+        <v>16.48</v>
       </c>
       <c r="I166" s="8">
-        <v>38.17</v>
+        <v>12.09</v>
       </c>
       <c r="J166" s="8">
-        <v>4.41</v>
+        <v>2.82</v>
       </c>
       <c r="K166" s="8">
-        <v>13.32</v>
+        <v>7.66</v>
       </c>
       <c r="L166" s="6">
-        <v>0.86827494821917806</v>
+        <v>0.214290025</v>
       </c>
       <c r="M166" s="6">
-        <v>0.28839515178082192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7477,40 +7477,40 @@
         <v>77</v>
       </c>
       <c r="B167" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C167" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D167" s="8">
         <v>62</v>
       </c>
-      <c r="D167" s="8">
-        <v>49</v>
-      </c>
       <c r="E167" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F167" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H167" s="8">
-        <v>63.62</v>
+        <v>12.09</v>
       </c>
       <c r="I167" s="8">
-        <v>44.04</v>
+        <v>12.09</v>
       </c>
       <c r="J167" s="8">
-        <v>7.35</v>
+        <v>2.25</v>
       </c>
       <c r="K167" s="8">
-        <v>13.32</v>
+        <v>2</v>
       </c>
       <c r="L167" s="6">
-        <v>0.33689443869863001</v>
+        <v>9.8220637499999999E-2</v>
       </c>
       <c r="M167" s="6">
-        <v>0.48065858630136987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7518,40 +7518,40 @@
         <v>77</v>
       </c>
       <c r="B168" s="8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D168" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F168" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H168" s="8">
-        <v>14.27</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="I168" s="8">
-        <v>14.27</v>
+        <v>0</v>
       </c>
       <c r="J168" s="8">
-        <v>2.44</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K168" s="8">
-        <v>7.66</v>
+        <v>30</v>
       </c>
       <c r="L168" s="6">
+        <v>0.13679999999999998</v>
+      </c>
+      <c r="M168" s="6">
         <v>0</v>
-      </c>
-      <c r="M168" s="6">
-        <v>0.14952320000000002</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7559,16 +7559,16 @@
         <v>77</v>
       </c>
       <c r="B169" s="8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D169" s="8">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F169" s="8">
         <v>10</v>
@@ -7577,19 +7577,19 @@
         <v>15</v>
       </c>
       <c r="H169" s="8">
-        <v>9.56</v>
+        <v>16.48</v>
       </c>
       <c r="I169" s="8">
-        <v>6.86</v>
+        <v>12.09</v>
       </c>
       <c r="J169" s="8">
-        <v>1.63</v>
+        <v>2.82</v>
       </c>
       <c r="K169" s="8">
         <v>7.66</v>
       </c>
       <c r="L169" s="6">
-        <v>9.9886400000000014E-2</v>
+        <v>0.17280960000000001</v>
       </c>
       <c r="M169" s="6">
         <v>0</v>
@@ -7600,37 +7600,37 @@
         <v>77</v>
       </c>
       <c r="B170" s="8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D170" s="8">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F170" s="8">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H170" s="8">
-        <v>4.71</v>
+        <v>7.95</v>
       </c>
       <c r="I170" s="8">
-        <v>4.71</v>
+        <v>7.95</v>
       </c>
       <c r="J170" s="8">
-        <v>0.8</v>
+        <v>1.32</v>
       </c>
       <c r="K170" s="8">
         <v>7.66</v>
       </c>
       <c r="L170" s="6">
-        <v>4.9023999999999998E-2</v>
+        <v>8.0889600000000006E-2</v>
       </c>
       <c r="M170" s="6">
         <v>0</v>
@@ -7641,37 +7641,37 @@
         <v>77</v>
       </c>
       <c r="B171" s="8">
+        <v>12</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D171" s="8">
+        <v>15</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D171" s="8">
-        <v>80</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="F171" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H171" s="8">
-        <v>14.27</v>
+        <v>16.48</v>
       </c>
       <c r="I171" s="8">
-        <v>10.23</v>
+        <v>16.48</v>
       </c>
       <c r="J171" s="8">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="K171" s="8">
         <v>7.66</v>
       </c>
       <c r="L171" s="6">
-        <v>0.1495232</v>
+        <v>0.9046428125</v>
       </c>
       <c r="M171" s="6">
         <v>0</v>
@@ -7682,40 +7682,40 @@
         <v>77</v>
       </c>
       <c r="B172" s="8">
+        <v>12</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D172" s="8">
+        <v>10</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" s="8">
+        <v>16</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D172" s="8">
-        <v>81</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F172" s="8">
-        <v>5</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H172" s="8">
-        <v>14.27</v>
+        <v>5.44</v>
       </c>
       <c r="I172" s="8">
-        <v>14.27</v>
+        <v>5.44</v>
       </c>
       <c r="J172" s="8">
-        <v>2.44</v>
+        <v>0.93</v>
       </c>
       <c r="K172" s="8">
         <v>7.66</v>
       </c>
       <c r="L172" s="6">
+        <v>0.3414276</v>
+      </c>
+      <c r="M172" s="6">
         <v>0</v>
-      </c>
-      <c r="M172" s="6">
-        <v>0.14952320000000002</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7723,16 +7723,16 @@
         <v>77</v>
       </c>
       <c r="B173" s="8">
+        <v>12</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D173" s="8">
+        <v>10</v>
+      </c>
+      <c r="E173" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D173" s="8">
-        <v>79</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="F173" s="8">
         <v>10</v>
@@ -7741,19 +7741,19 @@
         <v>15</v>
       </c>
       <c r="H173" s="8">
-        <v>0.34</v>
+        <v>11.04</v>
       </c>
       <c r="I173" s="8">
-        <v>0.24</v>
+        <v>8.1</v>
       </c>
       <c r="J173" s="8">
-        <v>0.05</v>
+        <v>1.89</v>
       </c>
       <c r="K173" s="8">
-        <v>7.31</v>
+        <v>7.66</v>
       </c>
       <c r="L173" s="6">
-        <v>2.9239999999999999E-3</v>
+        <v>0.11581919999999997</v>
       </c>
       <c r="M173" s="6">
         <v>0</v>
@@ -7764,37 +7764,37 @@
         <v>77</v>
       </c>
       <c r="B174" s="8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D174" s="8">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F174" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H174" s="8">
-        <v>0.17</v>
+        <v>5.44</v>
       </c>
       <c r="I174" s="8">
-        <v>0.17</v>
+        <v>5.44</v>
       </c>
       <c r="J174" s="8">
-        <v>0.02</v>
+        <v>0.93</v>
       </c>
       <c r="K174" s="8">
-        <v>7.31</v>
+        <v>7.66</v>
       </c>
       <c r="L174" s="6">
-        <v>1.1696E-3</v>
+        <v>0.3414276</v>
       </c>
       <c r="M174" s="6">
         <v>0</v>
@@ -7805,16 +7805,16 @@
         <v>77</v>
       </c>
       <c r="B175" s="8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D175" s="8">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F175" s="8">
         <v>10</v>
@@ -7823,19 +7823,19 @@
         <v>15</v>
       </c>
       <c r="H175" s="8">
-        <v>0.51</v>
+        <v>11.04</v>
       </c>
       <c r="I175" s="8">
-        <v>0.35</v>
+        <v>8.1</v>
       </c>
       <c r="J175" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>1.89</v>
       </c>
       <c r="K175" s="8">
-        <v>7.31</v>
+        <v>7.66</v>
       </c>
       <c r="L175" s="6">
-        <v>4.0936000000000002E-3</v>
+        <v>0.11581919999999997</v>
       </c>
       <c r="M175" s="6">
         <v>0</v>
@@ -7846,10 +7846,10 @@
         <v>77</v>
       </c>
       <c r="B176" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D176" s="8">
         <v>81</v>
@@ -7864,22 +7864,22 @@
         <v>60</v>
       </c>
       <c r="H176" s="8">
-        <v>0.51</v>
+        <v>14.27</v>
       </c>
       <c r="I176" s="8">
-        <v>0.51</v>
+        <v>14.27</v>
       </c>
       <c r="J176" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>2.44</v>
       </c>
       <c r="K176" s="8">
-        <v>7.31</v>
+        <v>7.66</v>
       </c>
       <c r="L176" s="6">
         <v>0</v>
       </c>
       <c r="M176" s="6">
-        <v>4.0936000000000011E-3</v>
+        <v>0.14952320000000002</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7887,16 +7887,16 @@
         <v>77</v>
       </c>
       <c r="B177" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D177" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F177" s="8">
         <v>10</v>
@@ -7905,19 +7905,19 @@
         <v>15</v>
       </c>
       <c r="H177" s="8">
-        <v>2.65</v>
+        <v>14.27</v>
       </c>
       <c r="I177" s="8">
-        <v>1.84</v>
+        <v>10.23</v>
       </c>
       <c r="J177" s="8">
-        <v>0.34</v>
+        <v>2.44</v>
       </c>
       <c r="K177" s="8">
-        <v>7.84</v>
+        <v>7.66</v>
       </c>
       <c r="L177" s="6">
-        <v>2.1324800000000005E-2</v>
+        <v>0.1495232</v>
       </c>
       <c r="M177" s="6">
         <v>0</v>
@@ -7928,10 +7928,10 @@
         <v>77</v>
       </c>
       <c r="B178" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D178" s="8">
         <v>79</v>
@@ -7940,25 +7940,25 @@
         <v>65</v>
       </c>
       <c r="F178" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H178" s="8">
-        <v>1.31</v>
+        <v>4.71</v>
       </c>
       <c r="I178" s="8">
-        <v>1.31</v>
+        <v>4.71</v>
       </c>
       <c r="J178" s="8">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="K178" s="8">
-        <v>7.84</v>
+        <v>7.66</v>
       </c>
       <c r="L178" s="6">
-        <v>1.0662400000000001E-2</v>
+        <v>4.9023999999999998E-2</v>
       </c>
       <c r="M178" s="6">
         <v>0</v>
@@ -7969,16 +7969,16 @@
         <v>77</v>
       </c>
       <c r="B179" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D179" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F179" s="8">
         <v>10</v>
@@ -7987,19 +7987,19 @@
         <v>15</v>
       </c>
       <c r="H179" s="8">
-        <v>3.96</v>
+        <v>9.56</v>
       </c>
       <c r="I179" s="8">
-        <v>2.74</v>
+        <v>6.86</v>
       </c>
       <c r="J179" s="8">
-        <v>0.51</v>
+        <v>1.63</v>
       </c>
       <c r="K179" s="8">
-        <v>7.84</v>
+        <v>7.66</v>
       </c>
       <c r="L179" s="6">
-        <v>3.19872E-2</v>
+        <v>9.9886400000000014E-2</v>
       </c>
       <c r="M179" s="6">
         <v>0</v>
@@ -8010,16 +8010,16 @@
         <v>77</v>
       </c>
       <c r="B180" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D180" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F180" s="8">
         <v>5</v>
@@ -8028,22 +8028,22 @@
         <v>60</v>
       </c>
       <c r="H180" s="8">
-        <v>3.96</v>
+        <v>14.27</v>
       </c>
       <c r="I180" s="8">
-        <v>3.96</v>
+        <v>14.27</v>
       </c>
       <c r="J180" s="8">
-        <v>0.51</v>
+        <v>2.44</v>
       </c>
       <c r="K180" s="8">
-        <v>7.84</v>
+        <v>7.66</v>
       </c>
       <c r="L180" s="6">
         <v>0</v>
       </c>
       <c r="M180" s="6">
-        <v>3.19872E-2</v>
+        <v>0.14952320000000002</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -9907,6 +9907,9 @@
       <c r="A324" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M324">
+    <sortCondition ref="C1:C324"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/original/Til Anders Peter og Frederik 14122023.xlsx
+++ b/data/original/Til Anders Peter og Frederik 14122023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_E6E2CDB5D714CECB874DAF8AF1372014E0ED704F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C413530E-0C8F-42F5-980D-DB32FC4145ED}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_E6E2CDB5D714CECB874DAF8AF1372014E0ED704F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAC87B37-38AE-4FB9-8797-F671F2C66E16}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N, TAN, TonGødning, VS" sheetId="1" r:id="rId1"/>
@@ -688,11 +688,11 @@
   <dimension ref="A1:N324"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,8 +705,8 @@
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
